--- a/Bot/Data_shopee/data_1_1_1.xlsx
+++ b/Bot/Data_shopee/data_1_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:O61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -412,12 +412,18 @@
         <v>I0W76E</v>
       </c>
       <c r="M1" t="str">
+        <v>_1FKkT</v>
+      </c>
+      <c r="N1" t="str">
+        <v>iMq5a7</v>
+      </c>
+      <c r="O1" t="str">
         <v>hxLzax</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/In2It-Primer-PMP-15g-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B9%E0%B8%AD%E0%B8%B4%E0%B8%97-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88.-i.70998059.15370525651?sp_atk=0d53afa3-bf94-4c0b-b735-d3c1ae1d730c&amp;xptdk=0d53afa3-bf94-4c0b-b735-d3c1ae1d730c</v>
+        <v>https://shopee.co.th/In2It-Primer-PMP-15g-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B9%E0%B8%AD%E0%B8%B4%E0%B8%97-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88.-i.70998059.15370525651?sp_atk=2130aa06-2bc2-4857-9e89-ea815ca32d7b&amp;xptdk=2130aa06-2bc2-4857-9e89-ea815ca32d7b</v>
       </c>
       <c r="B2" t="str">
         <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkq-lobxlyd8mv43ed_tn</v>
@@ -438,7 +444,7 @@
         <v>170</v>
       </c>
       <c r="H2" t="str">
-        <v>ขายแล้ว 26.5พัน ชิ้น</v>
+        <v>ขายแล้ว 26.8พัน ชิ้น</v>
       </c>
       <c r="I2" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -453,12 +459,18 @@
         <v/>
       </c>
       <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/LA-GLACE-Ideal-Airy-Skin-Concealer-2g-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1.-i.70998059.23835568850?sp_atk=b88bfbd6-aeeb-4fe8-9c7b-96dab8545be8&amp;xptdk=b88bfbd6-aeeb-4fe8-9c7b-96dab8545be8</v>
+        <v>https://shopee.co.th/LA-GLACE-Ideal-Airy-Skin-Concealer-2g-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1.-i.70998059.23835568850?sp_atk=1ba9db5d-2cc2-421e-b29b-480586894b94&amp;xptdk=1ba9db5d-2cc2-421e-b29b-480586894b94</v>
       </c>
       <c r="B3" t="str">
         <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm6-loa1q6eksx252a_tn</v>
@@ -479,7 +491,7 @@
         <v>79</v>
       </c>
       <c r="H3" t="str">
-        <v>ขายแล้ว 84.1พัน ชิ้น</v>
+        <v>ขายแล้ว 84.4พัน ชิ้น</v>
       </c>
       <c r="I3" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -496,10 +508,16 @@
       <c r="M3" t="str">
         <v/>
       </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%F0%9F%91%AF%E2%80%8D%E2%99%80%EF%B8%8F(%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-4-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C)-Derra-cushion-%E0%B8%84%E0%B8%B9%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B9%88%E0%B8%B2-SPF-25-PA-10-g.-i.78549877.23930792863?sp_atk=cf8ac4b9-4a42-4447-9481-8393d99bd4f4&amp;xptdk=cf8ac4b9-4a42-4447-9481-8393d99bd4f4</v>
+        <v>https://shopee.co.th/%F0%9F%91%AF%E2%80%8D%E2%99%80%EF%B8%8F(%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-4-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C)-Derra-cushion-%E0%B8%84%E0%B8%B9%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B9%88%E0%B8%B2-SPF-25-PA-10-g.-i.78549877.23930792863?sp_atk=4c1d7a4f-1576-4774-af7a-f6923c33ee37&amp;xptdk=4c1d7a4f-1576-4774-af7a-f6923c33ee37</v>
       </c>
       <c r="B4" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-23030-oqxsivyligovd7_tn</v>
@@ -520,7 +538,7 @@
         <v>185</v>
       </c>
       <c r="H4" t="str">
-        <v>ขายแล้ว 29พัน ชิ้น</v>
+        <v>ขายแล้ว 29.2พัน ชิ้น</v>
       </c>
       <c r="I4" t="str">
         <v>จังหวัดปทุมธานี</v>
@@ -537,10 +555,16 @@
       <c r="M4" t="str">
         <v/>
       </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B8%B3-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87-The-Skin-Collection-Serum-Niacinamide10-NAG8-30ml-i.345365881.3665808158?sp_atk=8f0a6571-ff0b-419e-b38d-64bc78a78e95&amp;xptdk=8f0a6571-ff0b-419e-b38d-64bc78a78e95</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B8%B3-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87-The-Skin-Collection-Serum-Niacinamide10-NAG8-30ml-i.345365881.3665808158?sp_atk=4509684f-53fa-45f5-b8af-e28e266bbc52&amp;xptdk=4509684f-53fa-45f5-b8af-e28e266bbc52</v>
       </c>
       <c r="B5" t="str">
         <v>https://down-th.img.susercontent.com/file/f607b9a0ad4c7bfbbaf41451ee126408_tn</v>
@@ -561,7 +585,7 @@
         <v>139</v>
       </c>
       <c r="H5" t="str">
-        <v>ขายแล้ว 123.9พัน ชิ้น</v>
+        <v>ขายแล้ว 124.3พัน ชิ้น</v>
       </c>
       <c r="I5" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -576,118 +600,136 @@
         <v/>
       </c>
       <c r="M5" t="str">
+        <v>โค้ดลด ฿10</v>
+      </c>
+      <c r="N5" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-CKL719-JMF9924-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.4062349.1098492468?sp_atk=fd24c72e-905d-4f89-9b2f-b4d8b6e48a83&amp;xptdk=fd24c72e-905d-4f89-9b2f-b4d8b6e48a83</v>
+        <v>https://shopee.co.th/CeraVe-Moisturising-Cream-50ml-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%B5-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A3%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2.-i.70998059.15393545437?sp_atk=7099dfc1-fb1e-4481-823a-da75b94e52c7&amp;xptdk=7099dfc1-fb1e-4481-823a-da75b94e52c7</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-h5n6hkw1kflv3b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm5-lpy0elazcbwl06_tn</v>
       </c>
       <c r="C6" t="str">
-        <v>-64%</v>
+        <v>-5%</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E6" t="str">
-        <v>ลูกค้าใหม่ 1 บาท เครื่องหนีบผม CKL719 /JMF9924 เครื่องหนีบผม ที่หนีบผม เครื่องรีดผม ที่รีดผม หนีบผม</v>
+        <v>CeraVe Moisturising Cream 50ml เซราวี มอยสเจอร์ไรซิ่งครีมบำรุงผิวหน้าและผิวกาย.</v>
       </c>
       <c r="F6" t="str">
-        <v>-</v>
+        <v>฿210</v>
       </c>
       <c r="G6" t="str">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H6" t="str">
-        <v>ขายแล้ว 38.4พัน ชิ้น</v>
+        <v>ขายแล้ว 23.3พัน ชิ้น</v>
       </c>
       <c r="I6" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J6" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>500</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/CeraVe-Moisturising-Cream-50ml-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%B5-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A3%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2.-i.70998059.15393545437?sp_atk=a618b2cc-0b37-47c6-a30e-e91a931f6ce9&amp;xptdk=a618b2cc-0b37-47c6-a30e-e91a931f6ce9</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-CKL719-JMF9924-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.4062349.1098492468?sp_atk=fc4c4053-de7a-4279-ba83-c9d9825a2861&amp;xptdk=fc4c4053-de7a-4279-ba83-c9d9825a2861</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm5-lpy0elazcbwl06_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-h5n6hkw1kflv3b_tn</v>
       </c>
       <c r="C7" t="str">
-        <v>-5%</v>
+        <v>-64%</v>
       </c>
       <c r="D7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>CeraVe Moisturising Cream 50ml เซราวี มอยสเจอร์ไรซิ่งครีมบำรุงผิวหน้าและผิวกาย.</v>
+        <v>ลูกค้าใหม่ 1 บาท เครื่องหนีบผม CKL719 /JMF9924 เครื่องหนีบผม ที่หนีบผม เครื่องรีดผม ที่รีดผม หนีบผม</v>
       </c>
       <c r="F7" t="str">
-        <v>฿210</v>
+        <v>-</v>
       </c>
       <c r="G7" t="str">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H7" t="str">
-        <v>ขายแล้ว 23.2พัน ชิ้น</v>
+        <v>ขายแล้ว 38.6พัน ชิ้น</v>
       </c>
       <c r="I7" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>500</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B8%8B%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-Srichand-Sunlution-Sunscreen-Luminescence-SPF50-PA-40-ml.-i.62467035.5002199187?sp_atk=3fd93d0f-2157-4e02-a85d-60cee24f4ad8&amp;xptdk=3fd93d0f-2157-4e02-a85d-60cee24f4ad8</v>
+        <v>https://shopee.co.th/%F0%9F%A7%9A%E2%80%8D%E2%99%80%EF%B8%8F%E2%80%8D%EF%B8%8FMAGIC-WHITE-BODY-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%88%E0%B8%B4%E0%B8%81%E0%B9%84%E0%B8%A7%E0%B8%97%E0%B9%8C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%97-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-%E0%B8%A3%E0%B8%A7%E0%B8%A1-500-ml.-i.78549877.16598591185?sp_atk=c591b0a1-c38c-4531-8b1b-1a20dc4e119e&amp;xptdk=c591b0a1-c38c-4531-8b1b-1a20dc4e119e</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-lequcmomn2g319_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkqkzimqj7xaf8_tn</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>-65%</v>
       </c>
       <c r="D8" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E8" t="str">
-        <v>กันแดด ศรีจันทร์ ซันลูชั่น ซันสกรีน Srichand Sunlution Sunscreen / Luminescence SPF50+ PA++++ 40 ml.</v>
+        <v>🧚‍♀️‍️MAGIC WHITE BODY ครีมเมจิกไวท์ ครีมทาผิวขาว ได้ยกเซ็ท เซรั่ม+ครีม รวม 500 ml.</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>฿690</v>
       </c>
       <c r="G8" t="str">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="H8" t="str">
-        <v>ขายแล้ว 25.6พัน ชิ้น</v>
+        <v>ขายแล้ว 12.4พัน ชิ้น</v>
       </c>
       <c r="I8" t="str">
-        <v>จังหวัดตาก</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -699,33 +741,39 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>ซื้อ 20 ชิ้น ลด ฿10</v>
+      </c>
+      <c r="O8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-JANUA-30-ml.-%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%A7-i.2614841.20230861328?sp_atk=8a2b10a8-0521-473e-839e-a83614333dbc&amp;xptdk=8a2b10a8-0521-473e-839e-a83614333dbc</v>
+        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-pH-Balance-5.5-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-Tea-Tree-Facial-Cleanser-300ml-i.223832803.3716295861?sp_atk=09dad5ee-01a5-484e-a32a-327aaac0c4b7&amp;xptdk=09dad5ee-01a5-484e-a32a-327aaac0c4b7</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-r1esxvta7sov2a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/82d41d3050c4b4ef8e831c678a527402_tn</v>
       </c>
       <c r="C9" t="str">
-        <v>-49%</v>
+        <v>-88%</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E9" t="str">
-        <v>แท้💯% น้ำหอมแจนยัวร์ JANUA 30 ml. แจนชัว</v>
+        <v>Naturista เจลล้างหน้าทีทรี pH Balance 5.5 สูตรอ่อนโยน สำหรับคนเป็นสิว และผิวแพ้ง่าย Tea Tree Facial Cleanser 300ml</v>
       </c>
       <c r="F9" t="str">
-        <v>฿290</v>
+        <v>฿750</v>
       </c>
       <c r="G9" t="str">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="H9" t="str">
-        <v>ขายแล้ว 21.9พัน ชิ้น</v>
+        <v>ขายแล้ว 521.3พัน ชิ้น</v>
       </c>
       <c r="I9" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -740,77 +788,89 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>โค้ดลด ฿10</v>
+      </c>
+      <c r="N9" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B9%88%E0%B8%B2%E0%B8%9C%E0%B8%A1-2200-%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9F%E0%B8%B1%E0%B8%87%E0%B8%81%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-5-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%A5%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A5%E0%B8%A1%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-i.240677960.3832789785?sp_atk=f2f581e7-3fdf-4e46-874f-bd0abaa30682&amp;xptdk=f2f581e7-3fdf-4e46-874f-bd0abaa30682</v>
+        <v>https://shopee.co.th/Srichand-Skin-Moisture-Burst-Gel-Cream-10ml-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%8B%E0%B8%AD%E0%B8%87.-i.70998059.21217827137?sp_atk=32ea67bd-0a02-4dbf-9aad-9214e6300bed&amp;xptdk=32ea67bd-0a02-4dbf-9aad-9214e6300bed</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/5f864091145689738e417638fdaf7e66_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lobsgw9xsrsga9_tn</v>
       </c>
       <c r="C10" t="str">
-        <v>-16%</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E10" t="str">
-        <v>ไดร์เป่าผม 2200 วัตต์ พร้อมฟังก์ชั่นปรับระดับ 5 ระดับร้อน / เย็น ลมร้อนแรง ลมแรงแห้งเร็ว สายไฟทนทาน</v>
+        <v>Srichand Skin Moisture Burst Gel Cream 10ml ศรีจันทร์ เจลครีมล็อคผิวอิ่มน้ำ แบบซอง.</v>
       </c>
       <c r="F10" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H10" t="str">
-        <v>ขายแล้ว 15.6พัน ชิ้น</v>
+        <v>ขายแล้ว 60.3พัน ชิ้น</v>
       </c>
       <c r="I10" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J10" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v>100</v>
+        <v/>
       </c>
       <c r="L10" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/Siriraj-%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-Soft-Care-Plus-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A9%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-i.221185877.21002929912?sp_atk=17a1e55c-bdde-4106-a972-0f85be6ccd2c&amp;xptdk=17a1e55c-bdde-4106-a972-0f85be6ccd2c</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B8%8B%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-Srichand-Sunlution-Sunscreen-Luminescence-SPF50-PA-40-ml.-i.62467035.5002199187?sp_atk=242541ca-4cbe-41b2-b2fe-d8f3960895b7&amp;xptdk=242541ca-4cbe-41b2-b2fe-d8f3960895b7</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lhxo93w5p677f2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-lequcmomn2g319_tn</v>
       </c>
       <c r="C11" t="str">
-        <v>-43%</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E11" t="str">
-        <v>Siriraj ศิริราช Soft Care Plus ซอฟท์แคร์ พลัส 30 กรัม ใช้สำหรับทารักษาผิวแห้ง</v>
+        <v>กันแดด ศรีจันทร์ ซันลูชั่น ซันสกรีน Srichand Sunlution Sunscreen / Luminescence SPF50+ PA++++ 40 ml.</v>
       </c>
       <c r="F11" t="str">
-        <v>฿99</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="H11" t="str">
-        <v>ขายแล้ว 55.8พัน ชิ้น</v>
+        <v>ขายแล้ว 25.8พัน ชิ้น</v>
       </c>
       <c r="I11" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดตาก</v>
       </c>
       <c r="J11" t="str">
         <v/>
@@ -819,36 +879,42 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M11" t="str">
         <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/%F0%9F%A7%9A%E2%80%8D%E2%99%80%EF%B8%8F%E2%80%8D%EF%B8%8FMAGIC-WHITE-BODY-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%88%E0%B8%B4%E0%B8%81%E0%B9%84%E0%B8%A7%E0%B8%97%E0%B9%8C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%97-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-%E0%B8%A3%E0%B8%A7%E0%B8%A1-500-ml.-i.78549877.16598591185?sp_atk=fb4f0135-8bd3-4b81-9613-6d2dafa7cfbb&amp;xptdk=fb4f0135-8bd3-4b81-9613-6d2dafa7cfbb</v>
+        <v>https://shopee.co.th/%F0%9F%AB%A7(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-JANUA-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-30-ml.-i.78549877.21225515360?sp_atk=6c1ba910-d281-450e-8f2b-6e0837009755&amp;xptdk=6c1ba910-d281-450e-8f2b-6e0837009755</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkqkzimqj7xaf8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-lil86szdxxg1ab_tn</v>
       </c>
       <c r="C12" t="str">
-        <v>-65%</v>
+        <v>-45%</v>
       </c>
       <c r="D12" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E12" t="str">
-        <v>🧚‍♀️‍️MAGIC WHITE BODY ครีมเมจิกไวท์ ครีมทาผิวขาว ได้ยกเซ็ท เซรั่ม+ครีม รวม 500 ml.</v>
+        <v>🫧(แพคเกจใหม่) JANUA น้ำหอมแจนยัวร์ มีให้เลือก 5 กลิ่น 30 ml.</v>
       </c>
       <c r="F12" t="str">
-        <v>฿690</v>
+        <v>฿195</v>
       </c>
       <c r="G12" t="str">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="H12" t="str">
-        <v>ขายแล้ว 12.2พัน ชิ้น</v>
+        <v>ขายแล้ว 90พัน ชิ้น</v>
       </c>
       <c r="I12" t="str">
         <v>จังหวัดปทุมธานี</v>
@@ -865,31 +931,37 @@
       <c r="M12" t="str">
         <v/>
       </c>
+      <c r="N12" t="str">
+        <v>ซื้อ 20 ชิ้น ลด ฿10</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8FOdbo-Signature-Eyeshadow-Palette-OD276-%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-x-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-dayse-i.11210871.20707414101?sp_atk=5b2dc0a0-b41c-43a4-a0b1-f9f282b1bf29&amp;xptdk=5b2dc0a0-b41c-43a4-a0b1-f9f282b1bf29</v>
+        <v>https://shopee.co.th/Pramy-Moisturizing-Makeup-Setting-Spray-Matte-Finish-%E0%B8%9B%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%95%E0%B8%95%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B1%E0%B8%99.-i.70998059.14898763090?sp_atk=802b5179-578d-4106-84f2-01bde64d8f73&amp;xptdk=802b5179-578d-4106-84f2-01bde64d8f73</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lq1gn9v56lb47a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbl7-lpxxrpi1ygdi9b_tn</v>
       </c>
       <c r="C13" t="str">
-        <v>-74%</v>
+        <v>-68%</v>
       </c>
       <c r="D13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E13" t="str">
-        <v>♦️ของแท้·ส่งด่วน·ถูก♦️Odbo Signature Eyeshadow Palette #OD276 : โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท x 1 ชิ้น dayse</v>
+        <v>Pramy Moisturizing Makeup Setting Spray Matte Finish ปรามี่ เซ็ตติ้งสเปรย์ที่อ่อนโยน เนื้อแมท สำหรับผิวผสมและผิวมัน.</v>
       </c>
       <c r="F13" t="str">
         <v>-</v>
       </c>
       <c r="G13" t="str">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="H13" t="str">
-        <v>ขายแล้ว 26พัน ชิ้น</v>
+        <v>ขายแล้ว 17.6พัน ชิ้น</v>
       </c>
       <c r="I13" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -898,247 +970,283 @@
         <v>฿</v>
       </c>
       <c r="K13" t="str">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="L13" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M13" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/Srichand-Skin-Moisture-Burst-Gel-Cream-10ml-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%8B%E0%B8%AD%E0%B8%87.-i.70998059.21217827137?sp_atk=40850b88-1204-4ced-b479-b7c364ad665f&amp;xptdk=40850b88-1204-4ced-b479-b7c364ad665f</v>
+        <v>https://shopee.co.th/-%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%A5%E0%B8%94-50-AC10-CKL-JMF-1011-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B3%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%87%E0%B8%B8%E0%B9%89%E0%B8%A1%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%95%E0%B8%A3%E0%B8%87-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-4-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-i.4062349.215033313?sp_atk=06673c9f-0bd6-41a8-aeb2-5e3b91280007&amp;xptdk=06673c9f-0bd6-41a8-aeb2-5e3b91280007</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lobsgw9xsrsga9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-24olp5qjpglv78_tn</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>-77%</v>
       </c>
       <c r="D14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="E14" t="str">
-        <v>Srichand Skin Moisture Burst Gel Cream 10ml ศรีจันทร์ เจลครีมล็อคผิวอิ่มน้ำ แบบซอง.</v>
+        <v>[ ลูกค้าใหม่ 1 บาท ] ลด 50 AC10 CKL / JMF 1011 เครื่องหนีบผม ที่หนีบผม ทำวอลลุ่ม งุ้มปลาย หนีบผมตรง ปรับความร้อน 4 ระดับ</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="G14" t="str">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="H14" t="str">
-        <v>ขายแล้ว 60พัน ชิ้น</v>
+        <v>ขายแล้ว 40.3พัน ชิ้น</v>
       </c>
       <c r="I14" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>175</v>
       </c>
       <c r="L14" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/-%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%A5%E0%B8%94-50-AC10-CKL-JMF-1011-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B3%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%87%E0%B8%B8%E0%B9%89%E0%B8%A1%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%95%E0%B8%A3%E0%B8%87-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-4-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-i.4062349.215033313?sp_atk=633946aa-22e3-4f50-924c-1106be566ab8&amp;xptdk=633946aa-22e3-4f50-924c-1106be566ab8</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-JANUA-30-ml.-%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%A7-i.2614841.20230861328?sp_atk=eee6796a-a0ae-4d9c-8699-4fbb684e49ad&amp;xptdk=eee6796a-a0ae-4d9c-8699-4fbb684e49ad</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-24olp5qjpglv78_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-r1esxvta7sov2a_tn</v>
       </c>
       <c r="C15" t="str">
-        <v>-77%</v>
+        <v>-49%</v>
       </c>
       <c r="D15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>[ ลูกค้าใหม่ 1 บาท ] ลด 50 AC10 CKL / JMF 1011 เครื่องหนีบผม ที่หนีบผม ทำวอลลุ่ม งุ้มปลาย หนีบผมตรง ปรับความร้อน 4 ระดับ</v>
+        <v>แท้💯% น้ำหอมแจนยัวร์ JANUA 30 ml. แจนชัว</v>
       </c>
       <c r="F15" t="str">
-        <v>-</v>
+        <v>฿290</v>
       </c>
       <c r="G15" t="str">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="H15" t="str">
-        <v>ขายแล้ว 40.1พัน ชิ้น</v>
+        <v>ขายแล้ว 22.2พัน ชิ้น</v>
       </c>
       <c r="I15" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J15" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K15" t="str">
-        <v>175</v>
+        <v/>
       </c>
       <c r="L15" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M15" t="str">
         <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/%F0%9F%AB%A7(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-JANUA-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-30-ml.-i.78549877.21225515360?sp_atk=257c7229-c9b1-4255-967c-a968e7a10281&amp;xptdk=257c7229-c9b1-4255-967c-a968e7a10281</v>
+        <v>https://shopee.co.th/%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B9%88%E0%B8%B2%E0%B8%9C%E0%B8%A1-2200-%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9F%E0%B8%B1%E0%B8%87%E0%B8%81%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-5-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%A5%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A5%E0%B8%A1%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-i.240677960.3832789785?sp_atk=b5aef16e-7267-4d07-94c9-64ef9f61c83c&amp;xptdk=b5aef16e-7267-4d07-94c9-64ef9f61c83c</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-lil86szdxxg1ab_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5f864091145689738e417638fdaf7e66_tn</v>
       </c>
       <c r="C16" t="str">
-        <v>-45%</v>
+        <v>-16%</v>
       </c>
       <c r="D16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E16" t="str">
-        <v>🫧(แพคเกจใหม่) JANUA น้ำหอมแจนยัวร์ มีให้เลือก 5 กลิ่น 30 ml.</v>
+        <v>ไดร์เป่าผม 2200 วัตต์ พร้อมฟังก์ชั่นปรับระดับ 5 ระดับร้อน / เย็น ลมร้อนแรง ลมแรงแห้งเร็ว สายไฟทนทาน</v>
       </c>
       <c r="F16" t="str">
-        <v>฿195</v>
+        <v>-</v>
       </c>
       <c r="G16" t="str">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="H16" t="str">
-        <v>ขายแล้ว 89.9พัน ชิ้น</v>
+        <v>ขายแล้ว 15.8พัน ชิ้น</v>
       </c>
       <c r="I16" t="str">
         <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>100</v>
       </c>
       <c r="L16" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/HEINO%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B8%81%E0%B8%A7%E0%B9%89%E0%B8%B2%E0%B8%8727.6cm%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%873%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%AD%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A1%E0%B8%B5%E0%B8%A5%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%81-%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%A3%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%94-i.58855422.6544513482?sp_atk=df132f4b-6a2a-4bdb-9603-156b3cd654b9&amp;xptdk=df132f4b-6a2a-4bdb-9603-156b3cd654b9</v>
+        <v>https://shopee.co.th/Siriraj-%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-Soft-Care-Plus-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A9%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-i.221185877.21002929912?sp_atk=7a968d80-01ef-4114-b809-63a61184f93a&amp;xptdk=7a968d80-01ef-4114-b809-63a61184f93a</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lonsp4m99hrx5f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lhxo93w5p677f2_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>-54%</v>
+        <v>-43%</v>
       </c>
       <c r="D17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E17" t="str">
-        <v>HEINOเพิ่มใหญ่กว้าง27.6cmชั้นวางเครื่องสำอาง3ชั้น อุปกรณ์แต่งหน้า กล่องเก็บเอนกประสงค์แบบมีลิ้นชัก เป็นมิตรกับสิ่งเเวด</v>
+        <v>Siriraj ศิริราช Soft Care Plus ซอฟท์แคร์ พลัส 30 กรัม ใช้สำหรับทารักษาผิวแห้ง</v>
       </c>
       <c r="F17" t="str">
-        <v>-</v>
+        <v>฿99</v>
       </c>
       <c r="G17" t="str">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H17" t="str">
-        <v>ขายแล้ว 99.4พัน ชิ้น</v>
+        <v>ขายแล้ว 56.2พัน ชิ้น</v>
       </c>
       <c r="I17" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J17" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K17" t="str">
-        <v>110</v>
+        <v/>
       </c>
       <c r="L17" t="str">
         <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M17" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/%F0%9F%90%8F(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-CARISTA-GOAT-MILK-KERATIN-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%B0-500-g.-i.78549877.12557325813?sp_atk=20ee6605-eb42-44bf-91eb-cb4c96c62fdf&amp;xptdk=20ee6605-eb42-44bf-91eb-cb4c96c62fdf</v>
+        <v>https://shopee.co.th/Naturista-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B8%A5%E0%B8%B6%E0%B8%81-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-Tea-Tree-Facial-Toner-250ml-i.223832803.5416200813?sp_atk=555d82a3-d762-4bf3-b29b-427d787a3be6&amp;xptdk=555d82a3-d762-4bf3-b29b-427d787a3be6</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/dbbb6d1d4a972ca7fdbc263721159442_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3a2f3064ea7f92bc4f6991fb763373ce_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>-31%</v>
+        <v>-77%</v>
       </c>
       <c r="D18" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E18" t="str">
-        <v>🐏(แพคเกจใหม่) CARISTA GOAT MILK KERATIN คาริสต้า เคราตินนมแพะ 500 g.</v>
+        <v>Naturista โทนเนอร์ทีทรี ทำความสะอาดสิ่งตกค้างบนใบหน้าอย่างล้ำลึก ช่วยป้องกันปัญหาสิว และกระชับรูขุมขน Tea Tree Facial Toner 250ml</v>
       </c>
       <c r="F18" t="str">
-        <v>-</v>
+        <v>฿390</v>
       </c>
       <c r="G18" t="str">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H18" t="str">
-        <v>ขายแล้ว 159พัน ชิ้น</v>
+        <v>ขายแล้ว 281.8พัน ชิ้น</v>
       </c>
       <c r="I18" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J18" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K18" t="str">
-        <v>175</v>
+        <v/>
       </c>
       <c r="L18" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M18" t="str">
+        <v>โค้ดลด ฿10</v>
+      </c>
+      <c r="N18" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/bnb-barenbliss-Peach-Makes-Perfect-Lip-Tint-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12%E0%B8%8A%E0%B8%A1-i.668922905.13089494091?sp_atk=541c8925-d6aa-4972-863e-72733a9aa15e&amp;xptdk=541c8925-d6aa-4972-863e-72733a9aa15e</v>
+        <v>https://shopee.co.th/4U2-LOVE-YOU-BABE-TINT-MATTE-%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%A1%E0%B8%97%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD-VELVET-i.125219443.18186644506?sp_atk=077702a4-6bea-4b15-b9cb-69884e17c918&amp;xptdk=077702a4-6bea-4b15-b9cb-69884e17c918</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lq8jr24ibl5w43_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-loo6n0x4hph9fa_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>-38%</v>
+        <v>-40%</v>
       </c>
       <c r="D19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>bnb barenbliss Peach Makes Perfect Lip Tint ลิปทินปากฉ่ำ ริมฝีปากชุ่มชื่น ติดทนนาน 12ชม</v>
+        <v>4U2 LOVE YOU BABE TINT MATTE -  ทินท์แมทเนื้อ VELVET</v>
       </c>
       <c r="F19" t="str">
-        <v>฿295</v>
+        <v>฿299</v>
       </c>
       <c r="G19" t="str">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H19" t="str">
-        <v>ขายแล้ว 21.7พัน ชิ้น</v>
+        <v>ขายแล้ว 28.7พัน ชิ้น</v>
       </c>
       <c r="I19" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดนครปฐม</v>
       </c>
       <c r="J19" t="str">
         <v/>
@@ -1150,36 +1258,42 @@
         <v/>
       </c>
       <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/-Exclusive-FRESH-DROP-Mineral-Spray-(50-ml.)-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%A3%E0%B9%88-EVEANDBOY-i.388038998.9234749012?sp_atk=ae3604d4-0e31-426f-a91f-c21b56352142&amp;xptdk=ae3604d4-0e31-426f-a91f-c21b56352142</v>
+        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-Acne-23ml.-i.70998059.18077268132?sp_atk=9976e717-74c6-47a8-bbf1-ef55e182a3f2&amp;xptdk=9976e717-74c6-47a8-bbf1-ef55e182a3f2</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lq4kr9u25xju7d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmk-lq1u1az8x9d6e1_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>-10%</v>
+        <v>-42%</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E20" t="str">
-        <v>[Exclusive] FRESH DROP - Mineral Spray  (50 ml.) สเปรย์น้ำแร่ EVEANDBOY</v>
+        <v>BANOBAGI Final Sleeping Mask Acne 23ml.</v>
       </c>
       <c r="F20" t="str">
-        <v>฿99</v>
+        <v>฿88</v>
       </c>
       <c r="G20" t="str">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H20" t="str">
-        <v>ขายแล้ว 20.4พัน ชิ้น</v>
+        <v>ขายแล้ว 98.9พัน ชิ้น</v>
       </c>
       <c r="I20" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -1191,36 +1305,42 @@
         <v/>
       </c>
       <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/IN2IT-Primer-PMP-(15-g.)-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.388038998.12073810801?sp_atk=66d543c7-e810-43b1-afe6-f4c63442124d&amp;xptdk=66d543c7-e810-43b1-afe6-f4c63442124d</v>
+        <v>https://shopee.co.th/FIF-by-Faith-in-Face-Cica5-Truly-Soothing-Cleansing-Water-500ml-%E0%B9%80%E0%B8%9F%E0%B8%98%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%80%E0%B8%9F%E0%B8%8B-%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2...-i.70998059.19552559950?sp_atk=f139e997-4d81-4e10-b4ae-1a5d1e97606b&amp;xptdk=f139e997-4d81-4e10-b4ae-1a5d1e97606b</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lqel0xzajzs404_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmm-lobnrohcehm8ef_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>-17%</v>
+        <v>-50%</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E21" t="str">
-        <v>IN2IT - Primer++ PMP (15 g.) ไพร์เมอร์</v>
+        <v>FIF by Faith in Face Cica5 Truly Soothing Cleansing Water 500ml เฟธอินเฟซ คลีนซิ่งสูตรน้ำ สำหรับผิวแพ้ง่ายและมีปัญหา...</v>
       </c>
       <c r="F21" t="str">
-        <v>฿239</v>
+        <v>฿369</v>
       </c>
       <c r="G21" t="str">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H21" t="str">
-        <v>ขายแล้ว 60.1พัน ชิ้น</v>
+        <v>ขายแล้ว 13.7พัน ชิ้น</v>
       </c>
       <c r="I21" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -1232,77 +1352,89 @@
         <v/>
       </c>
       <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%82%E0%B8%9B%E0%B8%A312.12%F0%9F%94%A5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-30WOW12-%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-200%E0%B8%BF.-IN2IT-PRIMER-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-PMP-15ml.-i.28469453.21885097103?sp_atk=d2639283-c492-43da-a423-154eb6aa83b2&amp;xptdk=d2639283-c492-43da-a423-154eb6aa83b2</v>
+        <v>https://shopee.co.th/%F0%9F%90%8F(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-CARISTA-GOAT-MILK-KERATIN-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%B0-500-g.-i.78549877.12557325813?sp_atk=e1ef1473-e995-420e-a972-108b91e82ea3&amp;xptdk=e1ef1473-e995-420e-a972-108b91e82ea3</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lmptwxaktg5j5b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/dbbb6d1d4a972ca7fdbc263721159442_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>-41%</v>
+        <v>-31%</v>
       </c>
       <c r="D22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dff11b50c63d4334f32c58f02d1a6898</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E22" t="str">
-        <v>🔥โปร12.12🔥โค้ด 30WOW12 ลดสูงสุด 200฿.- IN2IT PRIMER++ ไพรเมอร์เนื้อกำมะหยี่ PMP 15ml.</v>
+        <v>🐏(แพคเกจใหม่) CARISTA GOAT MILK KERATIN คาริสต้า เคราตินนมแพะ 500 g.</v>
       </c>
       <c r="F22" t="str">
-        <v>฿235</v>
+        <v>-</v>
       </c>
       <c r="G22" t="str">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="H22" t="str">
-        <v>ขายแล้ว 8.2พัน ชิ้น</v>
+        <v>ขายแล้ว 159.5พัน ชิ้น</v>
       </c>
       <c r="I22" t="str">
-        <v>จังหวัดนครราชสีมา</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>175</v>
       </c>
       <c r="L22" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/Laka-Fruity-Glam-Tint-Official-Store--i.298113044.10998067233?sp_atk=334d6791-ae4f-4c75-a547-f3e71682e8cd&amp;xptdk=334d6791-ae4f-4c75-a547-f3e71682e8cd</v>
+        <v>https://shopee.co.th/bnb-barenbliss-Peach-Makes-Perfect-Lip-Tint-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12%E0%B8%8A%E0%B8%A1-i.668922905.13089494091?sp_atk=e0b53bce-8cb0-468a-a176-c167cb74c651&amp;xptdk=e0b53bce-8cb0-468a-a176-c167cb74c651</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li2jj36btx5f9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lq8jr24ibl5w43_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>-28%</v>
+        <v>-26%</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E23" t="str">
-        <v>Laka : Fruity Glam Tint [Official Store]</v>
+        <v>bnb barenbliss Peach Makes Perfect Lip Tint ลิปทินปากฉ่ำ ริมฝีปากชุ่มชื่น ติดทนนาน 12ชม</v>
       </c>
       <c r="F23" t="str">
-        <v>฿570</v>
+        <v>฿295</v>
       </c>
       <c r="G23" t="str">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="H23" t="str">
-        <v>ขายแล้ว 37.3พัน ชิ้น</v>
+        <v>ขายแล้ว 22.4พัน ชิ้น</v>
       </c>
       <c r="I23" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -1314,36 +1446,42 @@
         <v/>
       </c>
       <c r="M23" t="str">
+        <v>โค้ดลด ฿50</v>
+      </c>
+      <c r="N23" t="str">
+        <v>ซื้อ 2 ชิ้น เพียง ฿399</v>
+      </c>
+      <c r="O23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%A1%E0%B8%82%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-Tea-Tree-Essential-Serum-50ml-i.223832803.6916201994?sp_atk=6dd19e35-e9a8-4ceb-8d20-d2a897755940&amp;xptdk=6dd19e35-e9a8-4ceb-8d20-d2a897755940</v>
+        <v>https://shopee.co.th/DAZZLE-ME-24-7-Wonderfullip-Serum-%E0%B8%A5%E0%B8%B4%E0%B8%9B-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-%E0%B8%A1%E0%B8%AB%E0%B8%B1%E0%B8%A8%E0%B8%88%E0%B8%A3%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B9%81%E0%B8%AB%E0%B9%88%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-i.762689085.22736258720?sp_atk=dd96ade8-f64c-4e86-b89e-c0e3f4fc8d67&amp;xptdk=dd96ade8-f64c-4e86-b89e-c0e3f4fc8d67</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/5a6988ccd5b20d4dda3ce287fd31cb20_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-lf272e0zncb5ae_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>-82%</v>
+        <v>-56%</v>
       </c>
       <c r="D24" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E24" t="str">
-        <v>Naturista เซรั่มจากสารสกัดทีทรีเข้มข้น ช่วยป้องกันปัญหาสิว บำรุงผิวหน้าให้กระชับ เรียบเนียน Tea Tree Essential Serum 50ml</v>
+        <v>DAZZLE ME 24/7 Wonderfullip Serum ลิป เซรั่ม มหัศจรรย์แห่งการบำรุงริมฝีปาก</v>
       </c>
       <c r="F24" t="str">
-        <v>฿890</v>
+        <v>฿129</v>
       </c>
       <c r="G24" t="str">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="H24" t="str">
-        <v>ขายแล้ว 109.8พัน ชิ้น</v>
+        <v>ขายแล้ว 14.2พัน ชิ้น</v>
       </c>
       <c r="I24" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1355,33 +1493,39 @@
         <v/>
       </c>
       <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/DAZZLE-ME-24-7-Wonderfullip-Serum-%E0%B8%A5%E0%B8%B4%E0%B8%9B-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-%E0%B8%A1%E0%B8%AB%E0%B8%B1%E0%B8%A8%E0%B8%88%E0%B8%A3%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B9%81%E0%B8%AB%E0%B9%88%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-i.762689085.22736258720?sp_atk=b46e9a84-281d-463d-b62f-5080830e3658&amp;xptdk=b46e9a84-281d-463d-b62f-5080830e3658</v>
+        <v>https://shopee.co.th/IN2IT-Primer-PMP-(15-g.)-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.388038998.12073810801?sp_atk=c6875b5d-e327-4576-8c4e-1a7cade73ce5&amp;xptdk=c6875b5d-e327-4576-8c4e-1a7cade73ce5</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-lf272e0zncb5ae_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lqel0xzajzs404_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>-50%</v>
+        <v>-17%</v>
       </c>
       <c r="D25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>DAZZLE ME 24/7 Wonderfullip Serum ลิป เซรั่ม มหัศจรรย์แห่งการบำรุงริมฝีปาก</v>
+        <v>IN2IT - Primer++ PMP (15 g.) ไพร์เมอร์</v>
       </c>
       <c r="F25" t="str">
-        <v>฿129</v>
+        <v>฿239</v>
       </c>
       <c r="G25" t="str">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="H25" t="str">
-        <v>ขายแล้ว 14พัน ชิ้น</v>
+        <v>ขายแล้ว 60.2พัน ชิ้น</v>
       </c>
       <c r="I25" t="str">
         <v>จังหวัดสมุทรปราการ</v>
@@ -1398,72 +1542,84 @@
       <c r="M25" t="str">
         <v/>
       </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B8%A5%E0%B8%B6%E0%B8%81-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-Tea-Tree-Facial-Toner-250ml-i.223832803.5416200813?sp_atk=4a2946d4-f583-45ae-ac31-dfadf433764e&amp;xptdk=4a2946d4-f583-45ae-ac31-dfadf433764e</v>
+        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8FOdbo-Signature-Eyeshadow-Palette-OD276-%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-x-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-dayse-i.11210871.20707414101?sp_atk=5a2844a3-744e-4d52-9410-b4d887a6f30d&amp;xptdk=5a2844a3-744e-4d52-9410-b4d887a6f30d</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/3a2f3064ea7f92bc4f6991fb763373ce_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lq1gn9v56lb47a_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>-77%</v>
+        <v>-74%</v>
       </c>
       <c r="D26" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E26" t="str">
-        <v>Naturista โทนเนอร์ทีทรี ทำความสะอาดสิ่งตกค้างบนใบหน้าอย่างล้ำลึก ช่วยป้องกันปัญหาสิว และกระชับรูขุมขน Tea Tree Facial Toner 250ml</v>
+        <v>♦️ของแท้·ส่งด่วน·ถูก♦️Odbo Signature Eyeshadow Palette #OD276 : โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท x 1 ชิ้น dayse</v>
       </c>
       <c r="F26" t="str">
-        <v>฿390</v>
+        <v>-</v>
       </c>
       <c r="G26" t="str">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H26" t="str">
-        <v>ขายแล้ว 281.3พัน ชิ้น</v>
+        <v>ขายแล้ว 26.3พัน ชิ้น</v>
       </c>
       <c r="I26" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>115</v>
       </c>
       <c r="L26" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M26" t="str">
         <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-Clear-Nose-Skin-Barrier-Moisturizing-Gel-120ml-1%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-(CMO)-i.34669982.15398220210?sp_atk=b3242ed5-03c4-45bd-99fa-23b89793849e&amp;xptdk=b3242ed5-03c4-45bd-99fa-23b89793849e</v>
+        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%A1%E0%B8%82%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-Tea-Tree-Essential-Serum-50ml-i.223832803.6916201994?sp_atk=d22169b7-da5a-4735-8774-e43372400816&amp;xptdk=d22169b7-da5a-4735-8774-e43372400816</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lnjx3lx0hz5ca1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5a6988ccd5b20d4dda3ce287fd31cb20_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>-40%</v>
+        <v>-82%</v>
       </c>
       <c r="D27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E27" t="str">
-        <v>[โปรแรง]มอยส์บูสเตอร์เคลียร์โนส Clear Nose Skin Barrier Moisturizing Gel 120ml 1ชิ้น (CMO)</v>
+        <v>Naturista เซรั่มจากสารสกัดทีทรีเข้มข้น ช่วยป้องกันปัญหาสิว บำรุงผิวหน้าให้กระชับ เรียบเนียน Tea Tree Essential Serum 50ml</v>
       </c>
       <c r="F27" t="str">
-        <v>฿999</v>
+        <v>฿890</v>
       </c>
       <c r="G27" t="str">
-        <v>598</v>
+        <v>159</v>
       </c>
       <c r="H27" t="str">
-        <v>ขายแล้ว 13.8พัน ชิ้น</v>
+        <v>ขายแล้ว 110พัน ชิ้น</v>
       </c>
       <c r="I27" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1478,36 +1634,42 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>โค้ดลด ฿10</v>
+      </c>
+      <c r="N27" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%9C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%B4-RACHI-SPF-50PA-10-g.-i.78549877.8775130420?sp_atk=574f41b1-dee3-4019-b95e-0bed888f69b0&amp;xptdk=574f41b1-dee3-4019-b95e-0bed888f69b0</v>
+        <v>https://shopee.co.th/Mediheal-Labocare-Panteno-Lips-Healbalm-10ml.-i.70998059.15110477490?sp_atk=2f61fe4e-b4ef-4926-94a7-e562246b1bed&amp;xptdk=2f61fe4e-b4ef-4926-94a7-e562246b1bed</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lo50yjw56kfk3c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk7-lo9jwcetmjhbd5_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>-20%</v>
+        <v>-51%</v>
       </c>
       <c r="D28" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E28" t="str">
-        <v>💜กันแดดราชิ RACHI SPF 50PA+++ 10 g.</v>
+        <v>Mediheal Labocare Panteno Lips Healbalm 10ml.</v>
       </c>
       <c r="F28" t="str">
-        <v>฿145</v>
+        <v>฿199</v>
       </c>
       <c r="G28" t="str">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H28" t="str">
-        <v>ขายแล้ว 81.4พัน ชิ้น</v>
+        <v>ขายแล้ว 14.5พัน ชิ้น</v>
       </c>
       <c r="I28" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -1516,162 +1678,186 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/Bbia-Glow-Lip-Tint-3.2g-%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2-(%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A1%E0%B8%AD%E0%B8%9A%E0%B8%9F%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%8A%E0%B8%A5%E0%B8%B8%E0%B8%84%E0%B9%82%E0%B8%81%E0%B8%A5%E0%B8%A7%E0%B9%8C)-i.21612020.11112205225?sp_atk=6c448260-fa3c-4518-b90e-802930b4b9c9&amp;xptdk=6c448260-fa3c-4518-b90e-802930b4b9c9</v>
+        <v>https://shopee.co.th/-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-DAZZLE-ME-Get-a-Grip!-Makeup-Setting-Spray-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%B1%E0%B8%9E-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.762689085.22248431375?sp_atk=66718695-829e-481b-b3de-fd7cc759866d&amp;xptdk=66718695-829e-481b-b3de-fd7cc759866d</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lqebu2o3bevu19_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-loniwq5cdjct82_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>-4%</v>
+        <v>-47%</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E29" t="str">
-        <v>Bbia Glow Lip Tint 3.2g #เปีย (ลิปทินท์ที่มอบฟินิชลุคโกลว์)</v>
+        <v>[ใหม่] DAZZLE ME Get a Grip! Makeup Setting Spray สเปรย์ล็อคเมคอัพ ควบคุมความมัน ติดทนนาน 12 ชั่วโมง</v>
       </c>
       <c r="F29" t="str">
-        <v>-</v>
+        <v>฿159</v>
       </c>
       <c r="G29" t="str">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="H29" t="str">
-        <v>ขายแล้ว 14พัน ชิ้น</v>
+        <v>ขายแล้ว 53.1พัน ชิ้น</v>
       </c>
       <c r="I29" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J29" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>345</v>
+        <v/>
       </c>
       <c r="L29" t="str">
         <v/>
       </c>
       <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/4U2-Love-You-Babe-Tint-Matte-2.6g-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%A1%E0%B8%97.-i.70998059.19495591153?sp_atk=4f1074cf-70e7-4f4f-a55c-73c1ced72f95&amp;xptdk=4f1074cf-70e7-4f4f-a55c-73c1ced72f95</v>
+        <v>https://shopee.co.th/Banana-Boat-Aqua-Daily-Moisture-UV-Protection-Sunscreen-Lotion-SPF50-PA-50ml.-i.70998059.9245467680?sp_atk=26310b2d-1947-4b8c-b321-14b0acadcf6d&amp;xptdk=26310b2d-1947-4b8c-b321-14b0acadcf6d</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk2-looyh2yyhilv42_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>-40%</v>
+        <v>-55%</v>
       </c>
       <c r="D30" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E30" t="str">
-        <v>4U2 Love You Babe Tint Matte 2.6g ลิปทินท์แมท.</v>
+        <v>Banana Boat Aqua Daily Moisture UV Protection Sunscreen Lotion SPF50+/PA++++ 50ml.</v>
       </c>
       <c r="F30" t="str">
-        <v>฿299</v>
+        <v>-</v>
       </c>
       <c r="G30" t="str">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H30" t="str">
-        <v>ขายแล้ว 7.9พัน ชิ้น</v>
+        <v>ขายแล้ว 76.6พัน ชิ้น</v>
       </c>
       <c r="I30" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>217</v>
       </c>
       <c r="L30" t="str">
         <v/>
       </c>
       <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-Acne-23ml.-i.70998059.18077268132?sp_atk=16f13015-9380-400c-8f79-3be2f91593ce&amp;xptdk=16f13015-9380-400c-8f79-3be2f91593ce</v>
+        <v>https://shopee.co.th/HEINO%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B8%81%E0%B8%A7%E0%B9%89%E0%B8%B2%E0%B8%8727.6cm%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%873%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%AD%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A1%E0%B8%B5%E0%B8%A5%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%81-%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%A3%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%94-i.58855422.6544513482?sp_atk=f88a1e39-743a-4d40-ba3d-f321faffe9e6&amp;xptdk=f88a1e39-743a-4d40-ba3d-f321faffe9e6</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmk-lq1u1az8x9d6e1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lonsp4m99hrx5f_tn</v>
       </c>
       <c r="C31" t="str">
-        <v>-42%</v>
+        <v>-54%</v>
       </c>
       <c r="D31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
       </c>
       <c r="E31" t="str">
-        <v>BANOBAGI Final Sleeping Mask Acne 23ml.</v>
+        <v>HEINOเพิ่มใหญ่กว้าง27.6cmชั้นวางเครื่องสำอาง3ชั้น อุปกรณ์แต่งหน้า กล่องเก็บเอนกประสงค์แบบมีลิ้นชัก เป็นมิตรกับสิ่งเเวด</v>
       </c>
       <c r="F31" t="str">
-        <v>฿88</v>
+        <v>-</v>
       </c>
       <c r="G31" t="str">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H31" t="str">
-        <v>ขายแล้ว 98.2พัน ชิ้น</v>
+        <v>ขายแล้ว 99.6พัน ชิ้น</v>
       </c>
       <c r="I31" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>110</v>
       </c>
       <c r="L31" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M31" t="str">
         <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-pH-Balance-5.5-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-Tea-Tree-Facial-Cleanser-300ml-i.223832803.3716295861?sp_atk=137d4afc-260e-479f-af58-4a3927e9ce2e&amp;xptdk=137d4afc-260e-479f-af58-4a3927e9ce2e</v>
+        <v>https://shopee.co.th/%F0%9F%92%9C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%B4-RACHI-SPF-50PA-10-g.-i.78549877.8775130420?sp_atk=55548cbb-52dd-43c6-bd43-6b496cc3cb7a&amp;xptdk=55548cbb-52dd-43c6-bd43-6b496cc3cb7a</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/82d41d3050c4b4ef8e831c678a527402_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lo50yjw56kfk3c_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>-88%</v>
+        <v>-20%</v>
       </c>
       <c r="D32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E32" t="str">
-        <v>Naturista เจลล้างหน้าทีทรี pH Balance 5.5 สูตรอ่อนโยน สำหรับคนเป็นสิว และผิวแพ้ง่าย Tea Tree Facial Cleanser 300ml</v>
+        <v>💜กันแดดราชิ RACHI SPF 50PA+++ 10 g.</v>
       </c>
       <c r="F32" t="str">
-        <v>฿750</v>
+        <v>฿145</v>
       </c>
       <c r="G32" t="str">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H32" t="str">
-        <v>ขายแล้ว 519.6พัน ชิ้น</v>
+        <v>ขายแล้ว 81.7พัน ชิ้น</v>
       </c>
       <c r="I32" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J32" t="str">
         <v/>
@@ -1680,39 +1866,45 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M32" t="str">
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-DAZZLE-ME-Get-a-Grip!-Makeup-Setting-Spray-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%B1%E0%B8%9E-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.762689085.22248431375?sp_atk=373b8d03-916f-4078-a53f-aedc2c3bb973&amp;xptdk=373b8d03-916f-4078-a53f-aedc2c3bb973</v>
+        <v>https://shopee.co.th/(%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%94%E0%B8%B3%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99)-La-Glace-Black-pH-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%94%E0%B8%B3%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%AA-i.313357518.21472660164?sp_atk=15cb12fe-2221-4d1f-8afc-15c55b0cd6d1&amp;xptdk=15cb12fe-2221-4d1f-8afc-15c55b0cd6d1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-loniwq5cdjct82_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lqam64m6it4449_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>-50%</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>[ใหม่] DAZZLE ME Get a Grip! Makeup Setting Spray สเปรย์ล็อคเมคอัพ ควบคุมความมัน ติดทนนาน 12 ชั่วโมง</v>
+        <v>(บลัชดำตลับใหม่เปิดง่ายขึ้น) La Glace Black pH Blush | บลัชดำลากลาส</v>
       </c>
       <c r="F33" t="str">
-        <v>฿159</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="H33" t="str">
-        <v>ขายแล้ว 52.5พัน ชิ้น</v>
+        <v>ขายแล้ว 81.8พัน ชิ้น</v>
       </c>
       <c r="I33" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J33" t="str">
         <v/>
@@ -1725,73 +1917,85 @@
       </c>
       <c r="M33" t="str">
         <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.1111988013.25600840401?sp_atk=0e02cf67-2723-4f41-896f-44edfa18879a&amp;xptdk=0e02cf67-2723-4f41-896f-44edfa18879a</v>
+        <v>https://shopee.co.th/bnb-barenbliss-True-Beauty-Inside-Cushion-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-SPF45-PA-%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-24%E0%B8%8A%E0%B8%A1.-i.668922905.17656615411?sp_atk=5dcefe92-6c3d-44e4-8c7a-d621031b5a3e&amp;xptdk=5dcefe92-6c3d-44e4-8c7a-d621031b5a3e</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lo0wq3j8ct47d9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lqaacci9bc4a11_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>-87%</v>
+        <v>-14%</v>
       </c>
       <c r="D34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E34" t="str">
-        <v>พัฟแต่งหน้า พัฟแป้งฝุ่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
+        <v>bnb barenbliss True Beauty Inside Cushion คุชชั่นเกาหลีผสมกันแดด SPF45 PA+++ คุมมัน ปกปิดขั้นสุด ติดทนนาน 24ชม.</v>
       </c>
       <c r="F34" t="str">
-        <v>-</v>
+        <v>฿559</v>
       </c>
       <c r="G34" t="str">
-        <v>4</v>
+        <v>479</v>
       </c>
       <c r="H34" t="str">
-        <v>ขายแล้ว 6.8พัน ชิ้น</v>
+        <v>ขายแล้ว 21.4พัน ชิ้น</v>
       </c>
       <c r="I34" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J34" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K34" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="L34" t="str">
         <v/>
       </c>
       <c r="M34" t="str">
+        <v>โค้ดลด ฿50</v>
+      </c>
+      <c r="N34" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O34" t="str">
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%B1%E0%B8%81%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%AD%E0%B8%A1%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-1-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-100--i.35528085.25605313463?sp_atk=bb9d6b08-9168-44af-b012-e52c2f9e2062&amp;xptdk=bb9d6b08-9168-44af-b012-e52c2f9e2062</v>
+        <v>https://shopee.co.th/Srichand-Skin-Moisture-Burst-Gel-Cream-50ml-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%81%E0%B8%B4%E0%B8%99-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%9A%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3.-i.70998059.12416925549?sp_atk=d87e0b06-8001-4890-b350-5d42265be884&amp;xptdk=d87e0b06-8001-4890-b350-5d42265be884</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lprr4nv24ulgbd_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk5-locfn6rjylh47d_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>-75%</v>
+        <v>-50%</v>
       </c>
       <c r="D35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E35" t="str">
-        <v>[ส่งฟรี]  ลิปปากฉ่ำ ลิปสักปาก  สวยอมชมพู 1 หลอด ของแท้ 100%</v>
+        <v>Srichand Skin Moisture Burst Gel Cream 50ml ศรีจันทร์ สกิน มอยส์เจอร์ เบิร์ส เจลครีมล็อคผิวอิ่มน้ำ.</v>
       </c>
       <c r="F35" t="str">
-        <v>฿159</v>
+        <v>฿455</v>
       </c>
       <c r="G35" t="str">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="H35" t="str">
-        <v>ขายแล้ว 7พัน ชิ้น</v>
+        <v>ขายแล้ว 9.3พัน ชิ้น</v>
       </c>
       <c r="I35" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1806,115 +2010,133 @@
         <v/>
       </c>
       <c r="M35" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/Banana-Boat-Aqua-Daily-Moisture-UV-Protection-Sunscreen-Lotion-SPF50-PA-50ml.-i.70998059.9245467680?sp_atk=bce24879-d9d9-4d75-80a7-98a497dd80a7&amp;xptdk=bce24879-d9d9-4d75-80a7-98a497dd80a7</v>
+        <v>https://shopee.co.th/-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-Clear-Nose-Skin-Barrier-Moisturizing-Gel-120ml-1%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-(CMO)-i.34669982.15398220210?sp_atk=0641967f-01f7-4f0e-8d6f-e6bd866cb255&amp;xptdk=0641967f-01f7-4f0e-8d6f-e6bd866cb255</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lnjx3lx0hz5ca1_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>-55%</v>
+        <v>-40%</v>
       </c>
       <c r="D36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E36" t="str">
-        <v>Banana Boat Aqua Daily Moisture UV Protection Sunscreen Lotion SPF50+/PA++++ 50ml.</v>
+        <v>[โปรแรง]มอยส์บูสเตอร์เคลียร์โนส Clear Nose Skin Barrier Moisturizing Gel 120ml 1ชิ้น (CMO)</v>
       </c>
       <c r="F36" t="str">
-        <v>-</v>
+        <v>฿999</v>
       </c>
       <c r="G36" t="str">
-        <v>195</v>
+        <v>598</v>
       </c>
       <c r="H36" t="str">
-        <v>ขายแล้ว 76.3พัน ชิ้น</v>
+        <v>ขายแล้ว 14.1พัน ชิ้น</v>
       </c>
       <c r="I36" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J36" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K36" t="str">
-        <v>217</v>
+        <v/>
       </c>
       <c r="L36" t="str">
         <v/>
       </c>
       <c r="M36" t="str">
-        <v/>
+        <v>โค้ดลด ฿60</v>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/%E2%9C%85%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-FilliMilli-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-Brush-Corrector-811-i.244324453.18476664872?sp_atk=150bcf8a-8c1a-481e-abbf-af8bdb59d792&amp;xptdk=150bcf8a-8c1a-481e-abbf-af8bdb59d792</v>
+        <v>https://shopee.co.th/-Exclusive-FRESH-DROP-Mineral-Spray-(50-ml.)-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%A3%E0%B9%88-EVEANDBOY-i.388038998.9234749012?sp_atk=9b2ce08a-d216-413e-9b4d-e89e1d8ad447&amp;xptdk=9b2ce08a-d216-413e-9b4d-e89e1d8ad447</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-fm0pxl5jwwov0d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lq4kr9u25xju7d_tn</v>
       </c>
       <c r="C37" t="str">
-        <v>-70%</v>
+        <v>-10%</v>
       </c>
       <c r="D37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <v>✅พร้อมส่ง ของแท้ ถูกที่สุด รวมตัวดัง FilliMilli อุปกรณ์แต่งหน้า แปรงลงรองพื้น คอนซิลเลอร์ Brush Corrector 811</v>
+        <v>[Exclusive] FRESH DROP - Mineral Spray  (50 ml.) สเปรย์น้ำแร่ EVEANDBOY</v>
       </c>
       <c r="F37" t="str">
-        <v>-</v>
+        <v>฿99</v>
       </c>
       <c r="G37" t="str">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H37" t="str">
-        <v>ขายแล้ว 15.5พัน ชิ้น</v>
+        <v>ขายแล้ว 20.5พัน ชิ้น</v>
       </c>
       <c r="I37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J37" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K37" t="str">
-        <v>539</v>
+        <v/>
       </c>
       <c r="L37" t="str">
         <v/>
       </c>
       <c r="M37" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/Srichand-Skin-Moisture-Burst-Gel-Cream-50ml-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%81%E0%B8%B4%E0%B8%99-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%9A%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3.-i.70998059.12416925549?sp_atk=3fc77133-2a0f-4f4e-8b3d-ef83fb900379&amp;xptdk=3fc77133-2a0f-4f4e-8b3d-ef83fb900379</v>
+        <v>https://shopee.co.th/Laka-Fruity-Glam-Tint-Official-Store--i.298113044.10998067233?sp_atk=9f541299-4d80-4a36-a2a4-479eab3c62d9&amp;xptdk=9f541299-4d80-4a36-a2a4-479eab3c62d9</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk5-locfn6rjylh47d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li2jj36btx5f9b_tn</v>
       </c>
       <c r="C38" t="str">
-        <v>-50%</v>
+        <v>-28%</v>
       </c>
       <c r="D38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <v>Srichand Skin Moisture Burst Gel Cream 50ml ศรีจันทร์ สกิน มอยส์เจอร์ เบิร์ส เจลครีมล็อคผิวอิ่มน้ำ.</v>
+        <v>Laka : Fruity Glam Tint [Official Store]</v>
       </c>
       <c r="F38" t="str">
-        <v>฿455</v>
+        <v>฿570</v>
       </c>
       <c r="G38" t="str">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="H38" t="str">
-        <v>ขายแล้ว 9.2พัน ชิ้น</v>
+        <v>ขายแล้ว 37.6พัน ชิ้น</v>
       </c>
       <c r="I38" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1929,77 +2151,89 @@
         <v/>
       </c>
       <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/Rubycell-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.291114372.18373285225?sp_atk=fc73a3b9-f91e-4be1-b304-db934d6854b1&amp;xptdk=fc73a3b9-f91e-4be1-b304-db934d6854b1</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%82%E0%B8%9B%E0%B8%A312.12%F0%9F%94%A5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-30WOW12-%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-200%E0%B8%BF.-IN2IT-PRIMER-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-PMP-15ml.-i.28469453.21885097103?sp_atk=f7a6e2fc-5a39-4e6c-8205-4db44ca03473&amp;xptdk=f7a6e2fc-5a39-4e6c-8205-4db44ca03473</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-sggnwav52inv3f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lmptwxaktg5j5b_tn</v>
       </c>
       <c r="C39" t="str">
-        <v>-82%</v>
+        <v>-38%</v>
       </c>
       <c r="D39" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dff11b50c63d4334f32c58f02d1a6898</v>
       </c>
       <c r="E39" t="str">
-        <v>Rubycell พัฟแต่งหน้า พัฟแป้งฝุ่น พัฟคุชชั่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
+        <v>🔥โปร12.12🔥โค้ด 30WOW12 ลดสูงสุด 200฿.- IN2IT PRIMER++ ไพรเมอร์เนื้อกำมะหยี่ PMP 15ml.</v>
       </c>
       <c r="F39" t="str">
-        <v>-</v>
+        <v>฿235</v>
       </c>
       <c r="G39" t="str">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="H39" t="str">
-        <v>ขายแล้ว 44.5พัน ชิ้น</v>
+        <v>ขายแล้ว 8.4พัน ชิ้น</v>
       </c>
       <c r="I39" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนครราชสีมา</v>
       </c>
       <c r="J39" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K39" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="L39" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M39" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/Mediheal-Labocare-Panteno-Lips-Healbalm-10ml.-i.70998059.15110477490?sp_atk=44d2a511-3512-46d6-80da-552ff3944014&amp;xptdk=44d2a511-3512-46d6-80da-552ff3944014</v>
+        <v>https://shopee.co.th/%F0%9F%8C%B8(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-COSMIC-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%84-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%81-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%9E%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7-100-ml.-i.78549877.6442547811?sp_atk=deef0209-6915-4881-8eca-55a2749ee110&amp;xptdk=deef0209-6915-4881-8eca-55a2749ee110</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk7-lo9jwcetmjhbd5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-c0sbznoujdovc6_tn</v>
       </c>
       <c r="C40" t="str">
-        <v>-51%</v>
+        <v/>
       </c>
       <c r="D40" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E40" t="str">
-        <v>Mediheal Labocare Panteno Lips Healbalm 10ml.</v>
+        <v>🌸(แพคเกจใหม่) COSMIC คอสมิค คอสมิก มูสเทพกำจัดขน กำจัดขนรักแร้ กำจัดขนน้องสาว 100 ml.</v>
       </c>
       <c r="F40" t="str">
-        <v>฿199</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="H40" t="str">
-        <v>ขายแล้ว 14.3พัน ชิ้น</v>
+        <v>ขายแล้ว 53.3พัน ชิ้น</v>
       </c>
       <c r="I40" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -2011,364 +2245,418 @@
         <v/>
       </c>
       <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <v>ซื้อ 20 ชิ้น ลด ฿10</v>
+      </c>
+      <c r="O40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/Pramy-Moisturizing-Makeup-Setting-Spray-Matte-Finish-%E0%B8%9B%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%95%E0%B8%95%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B1%E0%B8%99.-i.70998059.14898763090?sp_atk=85dfa66f-78c5-434b-b205-70acfbbe4e10&amp;xptdk=85dfa66f-78c5-434b-b205-70acfbbe4e10</v>
+        <v>https://shopee.co.th/YOU-NoutriWear-Flawless-Cushion-Foundation-SPF-40-PA-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B8%88%E0%B8%A3%E0%B8%B4%E0%B8%87-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B4%E0%B8%84%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.375845828.14339848467?sp_atk=3457d1ce-c07b-4345-ac4e-902e9e3220b3&amp;xptdk=3457d1ce-c07b-4345-ac4e-902e9e3220b3</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbl7-lpxxrpi1ygdi9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lqh4bfh772fuac_tn</v>
       </c>
       <c r="C41" t="str">
-        <v>-68%</v>
+        <v>-26%</v>
       </c>
       <c r="D41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E41" t="str">
-        <v>Pramy Moisturizing Makeup Setting Spray Matte Finish ปรามี่ เซ็ตติ้งสเปรย์ที่อ่อนโยน เนื้อแมท สำหรับผิวผสมและผิวมัน.</v>
+        <v>YOU NoutriWear+Flawless Cushion Foundation SPF 40 PA+++ คุชชั่น ตลับจริง เนื้อลิควิด ปกปิดขั้นสุด เนื้อบางเบา ติดทนนาน</v>
       </c>
       <c r="F41" t="str">
-        <v>-</v>
+        <v>฿459</v>
       </c>
       <c r="G41" t="str">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="H41" t="str">
-        <v>ขายแล้ว 17.4พัน ชิ้น</v>
+        <v>ขายแล้ว 72.3พัน ชิ้น</v>
       </c>
       <c r="I41" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J41" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K41" t="str">
-        <v>189</v>
+        <v/>
       </c>
       <c r="L41" t="str">
         <v/>
       </c>
       <c r="M41" t="str">
+        <v>โค้ดลด ฿70</v>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/-%E2%9C%85%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%A3%E0%B8%94%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%9A%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-Klay-%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B8%B3-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B4%E0%B8%A7-Red-Gel-Spotless-Anti-acne-20-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.431187719.22179712286?sp_atk=9c8a8e63-1622-41c2-9892-7d3558b613b8&amp;xptdk=9c8a8e63-1622-41c2-9892-7d3558b613b8</v>
+        <v>https://shopee.co.th/-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-Clear-Nose-Skin-Barrier-Moisturizing-Gel-10ml-x7%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-(MOS6-1)-i.34669982.21983516452?sp_atk=c430c0f1-11ad-4dd1-b75d-73daa068cc37&amp;xptdk=c430c0f1-11ad-4dd1-b75d-73daa068cc37</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lpu7c53w9ceyd9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll1msrmtl1t617_tn</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>-14%</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E42" t="str">
-        <v>[ ✅ของแท้/พร้อมส่ง ] เรดเจล เจลลบรอยสิว Klay ลดรอยดำ รอยแดงจากสิว Red Gel Spotless Anti-acne 20 กรัม</v>
+        <v>[โปรแรง]มอยส์บูสเตอร์เคลียร์โนส Clear Nose Skin Barrier Moisturizing Gel 10ml x7ชิ้น (MOS6+1)</v>
       </c>
       <c r="F42" t="str">
-        <v>-</v>
+        <v>฿343</v>
       </c>
       <c r="G42" t="str">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="H42" t="str">
-        <v>ขายแล้ว 7.4พัน ชิ้น</v>
+        <v>ขายแล้ว 9.7พัน ชิ้น</v>
       </c>
       <c r="I42" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J42" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v>349</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <v/>
       </c>
       <c r="M42" t="str">
+        <v>โค้ดลด ฿50</v>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
         <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95-KATHY-AMREZ-MINI-MATTE-LIP-%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B9%81%E0%B8%A1%E0%B8%97%E0%B8%A5%E0%B8%B4%E0%B8%9B-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-99.-(%E0%B8%9B%E0%B8%81%E0%B8%95%E0%B8%B4-199.-)-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%81%E0%B8%A1%E0%B8%97%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%88%E0%B8%B4%E0%B9%8B%E0%B8%A7%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-i.698040092.15864031102?sp_atk=b443c3f5-788f-485a-bdc7-cf179b02feeb&amp;xptdk=b443c3f5-788f-485a-bdc7-cf179b02feeb</v>
+        <v>https://shopee.co.th/Naturista-Tea-Tree-Special-Set-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%81%E0%B8%B4%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%95%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%81%E0%B8%A7%E0%B9%88%E0%B8%B2!-i.223832803.3471207676?sp_atk=6d01effd-cf7b-4798-b21a-acdcab80cf3d&amp;xptdk=6d01effd-cf7b-4798-b21a-acdcab80cf3d</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-loe89bpvam7364_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e61da4e7ad542b9d27b81f4ea0556853_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>-63%</v>
+        <v>-77%</v>
       </c>
       <c r="D43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dff11b50c63d4334f32c58f02d1a6898</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E43" t="str">
-        <v>ลิปกระแต KATHY AMREZ MINI MATTE LIP / มินิแมทลิป ราคา 99.-  (ปกติ 199.-) ลิปแมทกระแต ลิปกระแตไม่ติดแมส ลิปจิ๋วไม่ติดแมส</v>
+        <v>Naturista Tea Tree Special Set ชุดป้องกันการเกิดสิว บำรุงผิว เรียบเนียน กระชับ ซื้อเป็นเซตถูกกว่า!</v>
       </c>
       <c r="F43" t="str">
-        <v>-</v>
+        <v>฿1,700</v>
       </c>
       <c r="G43" t="str">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="H43" t="str">
-        <v>ขายแล้ว 159.4พัน ชิ้น</v>
+        <v>ขายแล้ว 87.2พัน ชิ้น</v>
       </c>
       <c r="I43" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J43" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v>94</v>
+        <v/>
       </c>
       <c r="L43" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M43" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>โค้ดลด ฿30</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/Peach-Milk-Honey-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87-%E0%B8%9A%E0%B8%A3%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%88%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.23632422982?sp_atk=4263023c-871f-4622-881c-4eec63bfc5fb&amp;xptdk=4263023c-871f-4622-881c-4eec63bfc5fb</v>
+        <v>https://shopee.co.th/%F0%9F%A7%A1%F0%9F%8D%8A(%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-11W%E2%80%8B-Whitening-body-lotion-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%95%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%9A%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B9%89%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%82%E0%B8%B2%E0%B8%A7-200-ml.-i.78549877.19980450661?sp_atk=682c0ec9-704b-4d9f-a504-c75f6a7162cc&amp;xptdk=682c0ec9-704b-4d9f-a504-c75f6a7162cc</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23030-c1blndruspovc9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-lhixe9i0bt3n34_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>-98%</v>
+        <v>-44%</v>
       </c>
       <c r="D44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E44" t="str">
-        <v>Peach Milk Honey ลิปกลอส น้ํามันน้ําผึ้ง บรรเทาอาการแห้ง ชุ่มชื้น จางหาย ลิปไลน์ น้ํา เบา ลิปหัวแปรงใหญ่ เกาหลี น่ารัก แต่งหน้า</v>
+        <v>🧡🍊(แพ็คเกจใหม่) 11W​ Whitening body lotion โลชั่นน้ำตบผิวขาว บอดี้โลชั่นผิวขาว 200 ml.</v>
       </c>
       <c r="F44" t="str">
-        <v>-</v>
+        <v>฿450</v>
       </c>
       <c r="G44" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="H44" t="str">
-        <v>ขายแล้ว 149.9พัน ชิ้น</v>
+        <v>ขายแล้ว 10.6พัน ชิ้น</v>
       </c>
       <c r="I44" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J44" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K44" t="str">
-        <v>10</v>
+        <v/>
       </c>
       <c r="L44" t="str">
         <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M44" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/FIF-by-Faith-in-Face-Cica5-Truly-Soothing-Cleansing-Water-500ml-%E0%B9%80%E0%B8%9F%E0%B8%98%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B9%80%E0%B8%9F%E0%B8%8B-%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2...-i.70998059.19552559950?sp_atk=75c7bace-46ca-4409-839d-a7ecbe899f18&amp;xptdk=75c7bace-46ca-4409-839d-a7ecbe899f18</v>
+        <v>https://shopee.co.th/SKINTIFIC-Cover-All-Perfect-Cushion-%E0%B8%84%E0%B8%B9%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%9A%E0%B8%9A-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%95%E0%B8%B4-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-24H%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-SPF35-PA-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-i.778788586.20381439200?sp_atk=38e90379-d396-4971-bedb-0b37567a87f2&amp;xptdk=38e90379-d396-4971-bedb-0b37567a87f2</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmm-lobnrohcehm8ef_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-llel0u75iz0e30_tn</v>
       </c>
       <c r="C45" t="str">
-        <v>-50%</v>
+        <v>-51%</v>
       </c>
       <c r="D45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
       </c>
       <c r="E45" t="str">
-        <v>FIF by Faith in Face Cica5 Truly Soothing Cleansing Water 500ml เฟธอินเฟซ คลีนซิ่งสูตรน้ำ สำหรับผิวแพ้ง่ายและมีปัญหา...</v>
+        <v>SKINTIFIC Cover All Perfect Cushion คูชชั่นปกปิดแบบ ปกปิดสูง ไร้รูขุมขน&amp;ไร้ที่ติ รองพื้น 24Hติดทนนาน SPF35 PA++++คุชชั่น</v>
       </c>
       <c r="F45" t="str">
-        <v>฿369</v>
+        <v>-</v>
       </c>
       <c r="G45" t="str">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="H45" t="str">
-        <v>ขายแล้ว 13.5พัน ชิ้น</v>
+        <v>ขายแล้ว 23.1พัน ชิ้น</v>
       </c>
       <c r="I45" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J45" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>649</v>
       </c>
       <c r="L45" t="str">
         <v/>
       </c>
       <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/Simplus-%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B9%88%E0%B8%B2%E0%B8%9C%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B9%84%E0%B8%94%E0%B9%89-3-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-1-%E0%B8%AB%E0%B8%B1%E0%B8%A7-%E0%B8%A5%E0%B8%A1%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%9C%E0%B8%A1CFJH001-i.448235616.21478733691?sp_atk=3300a853-1b8f-4237-8ce6-ce2fa523aa2a&amp;xptdk=3300a853-1b8f-4237-8ce6-ce2fa523aa2a</v>
+        <v>https://shopee.co.th/4U2-Love-You-Babe-Tint-Matte-2.6g-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%A1%E0%B8%97.-i.70998059.19495591153?sp_atk=562e1ae8-dbff-447f-a2fb-4dec7769d1b9&amp;xptdk=562e1ae8-dbff-447f-a2fb-4dec7769d1b9</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lpers3w4xfmx13_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk2-looyh2yyhilv42_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>-46%</v>
+        <v>-40%</v>
       </c>
       <c r="D46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E46" t="str">
-        <v>Simplus ไดร์เป่าผม ปรับความเร็วได้ 3 ระดับพร้อมหัวฉีดกระจายความร้อน 1 หัว/ลมเย็นแบบพกพาเครื่องมือจัดแต่งทรงผมCFJH001</v>
+        <v>4U2 Love You Babe Tint Matte 2.6g ลิปทินท์แมท.</v>
       </c>
       <c r="F46" t="str">
-        <v>-</v>
+        <v>฿299</v>
       </c>
       <c r="G46" t="str">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="H46" t="str">
-        <v>ขายแล้ว 20.7พัน ชิ้น</v>
+        <v>ขายแล้ว 8พัน ชิ้น</v>
       </c>
       <c r="I46" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J46" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K46" t="str">
-        <v>349</v>
+        <v/>
       </c>
       <c r="L46" t="str">
         <v/>
       </c>
       <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/Lip-It-%E0%B8%84%E0%B8%A5%E0%B8%B4%E0%B8%81%E0%B8%84%E0%B8%A5%E0%B8%B4%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A7%E0%B8%B2%E0%B8%A5%E0%B8%B4%E0%B8%9B-1.9g-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A7%E0%B8%B2-i.1006027365.23662635032?sp_atk=02cef9cb-51de-48d9-a7ce-f34cfb0c8f97&amp;xptdk=02cef9cb-51de-48d9-a7ce-f34cfb0c8f97</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.1111988013.25600840401?sp_atk=8d85cf97-57e8-4ada-95c4-15b5d0d23972&amp;xptdk=8d85cf97-57e8-4ada-95c4-15b5d0d23972</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lp6d9p060lfi7b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lo0wq3j8ct47d9_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>-23%</v>
+        <v>-83%</v>
       </c>
       <c r="D47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E47" t="str">
-        <v>Lip It คลิกคลิกลาวาลิป 1.9g #ลิปลาวา</v>
+        <v>พัฟแต่งหน้า พัฟแป้งฝุ่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
       </c>
       <c r="F47" t="str">
-        <v>฿259</v>
+        <v>-</v>
       </c>
       <c r="G47" t="str">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="H47" t="str">
-        <v>ขายแล้ว 2.2พัน ชิ้น</v>
+        <v>ขายแล้ว 7.2พัน ชิ้น</v>
       </c>
       <c r="I47" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="L47" t="str">
         <v/>
       </c>
       <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v>ซื้อ 5 ชิ้น ลด ฿5</v>
+      </c>
+      <c r="O47" t="str">
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD-4-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B9%87%E0%B8%81-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%84%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B8%96%E0%B8%99%E0%B8%B3%E0%B8%81%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-1-%E0%B8%84%E0%B8%B9%E0%B9%88%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B5%E0%B9%89%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-3-%E0%B8%A7%E0%B8%B4%E0%B8%99%E0%B8%B2%E0%B8%97%E0%B8%B5-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-i.1040428998.25854109066?sp_atk=6a3d3ebc-6a96-42cc-8ab4-064ab5a9903c&amp;xptdk=6a3d3ebc-6a96-42cc-8ab4-064ab5a9903c</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C-ROM-ND-Juicy-Lasting-Tint-5.5G-%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.295233598.24950464976?sp_atk=919b6b7d-b86b-4f37-adf0-1292e52569b3&amp;xptdk=919b6b7d-b86b-4f37-adf0-1292e52569b3</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lq66rlgjuja0a8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lntw1gdosjzkc2_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>-96%</v>
+        <v>-62%</v>
       </c>
       <c r="D48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="E48" t="str">
-        <v>🇹🇭 4 ชิ้นขนตาแม่เหล็ก 3 มิติพร้อมคลิปขนตาปลอมที่สามารถนำกลับมาใช้ใหม่ได้ง่ายสำหรับการแต่งหน้าขนตาธรรมชาติ 1 คู่ขนตาปาร์ตี้ไม่ต้องใช้กาวใช้ซ้ําได้ 3 วินาที ใช้ง่าย</v>
+        <v>ลิปทินท์ ROM&amp;ND Juicy Lasting Tint 5.5G ทาง่าย ไม่ตกร่อง  ติดทนนาน</v>
       </c>
       <c r="F48" t="str">
         <v>-</v>
       </c>
       <c r="G48" t="str">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="H48" t="str">
-        <v>ขายแล้ว 487 ชิ้น</v>
+        <v>ขายแล้ว 4พัน ชิ้น</v>
       </c>
       <c r="I48" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J48" t="str">
         <v>฿</v>
       </c>
       <c r="K48" t="str">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="L48" t="str">
         <v/>
       </c>
       <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
         <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/SASI-Sugar-Rush-Lip-Tint-Vol.2-2g-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%89%E0%B8%B3.-i.70998059.24350396072?sp_atk=026ed2c5-68f5-4d7e-928a-7f1b9cdac105&amp;xptdk=026ed2c5-68f5-4d7e-928a-7f1b9cdac105</v>
+        <v>https://shopee.co.th/DAZZLE-ME-Our-Secret-Cover-Concealer-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87-i.762689085.15784403884?sp_atk=df5d5183-759f-46dc-b2d1-746f561abad9&amp;xptdk=df5d5183-759f-46dc-b2d1-746f561abad9</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk0-lo6dz8zg1smu99_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lq7t3hdqddei37_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>-10%</v>
+        <v>-50%</v>
       </c>
       <c r="D49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E49" t="str">
-        <v>SASI Sugar Rush Lip Tint Vol.2 2g ศศิ ลิปทินท์เนื้อน้ำ.</v>
+        <v>DAZZLE ME Our Secret Cover Concealer คอนซีลเลอร์ เนื้อบางเบา ปกปิดขั้นสุด รอยสิว รอยแดง</v>
       </c>
       <c r="F49" t="str">
-        <v>฿99</v>
+        <v>฿159</v>
       </c>
       <c r="G49" t="str">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H49" t="str">
-        <v>ขายแล้ว 5.3พัน ชิ้น</v>
+        <v>ขายแล้ว 19.8พัน ชิ้น</v>
       </c>
       <c r="I49" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -2380,36 +2668,42 @@
         <v/>
       </c>
       <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O49" t="str">
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/Mille-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-Snail-Bright-Primer-i.11199750.1058699484?sp_atk=108b5131-66ad-46fd-89e9-1780ff7736ca&amp;xptdk=108b5131-66ad-46fd-89e9-1780ff7736ca</v>
+        <v>https://shopee.co.th/%F0%9F%87%B0%F0%9F%87%B7(%E0%B8%A1%E0%B8%B5%E0%B8%84%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B9%80%E0%B8%8A%E0%B9%87%E0%B8%84%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89)-Numju-%E0%B8%99%E0%B8%B1%E0%B8%A1%E0%B8%88%E0%B8%B9%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-100-g.%E0%B8%97-i.78549877.8926463266?sp_atk=1d704d2c-e371-4e28-97d6-d268b73ec938&amp;xptdk=1d704d2c-e371-4e28-97d6-d268b73ec938</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-kj2rxo0dheov52_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkl7hb7zoogue8_tn</v>
       </c>
       <c r="C50" t="str">
-        <v>-33%</v>
+        <v>-36%</v>
       </c>
       <c r="D50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E50" t="str">
-        <v>Mille ไพรเมอร์เบลอรูขุมขน คุมมัน Snail Bright Primer</v>
+        <v>🇰🇷(มีคิวอาร์โค้ดเช็คของแท้) Numju นัมจูโลชั่น หัวเชื้อวิตามินนำเข้าจากเกาหลี 100 g.ท</v>
       </c>
       <c r="F50" t="str">
-        <v>฿895</v>
+        <v>฿199</v>
       </c>
       <c r="G50" t="str">
-        <v>599</v>
+        <v>128</v>
       </c>
       <c r="H50" t="str">
-        <v>ขายแล้ว 23.8พัน ชิ้น</v>
+        <v>ขายแล้ว 171.2พัน ชิ้น</v>
       </c>
       <c r="I50" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J50" t="str">
         <v/>
@@ -2418,39 +2712,45 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M50" t="str">
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50" t="str">
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B0%F0%9F%87%B7(%E0%B8%A1%E0%B8%B5%E0%B8%84%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B9%80%E0%B8%8A%E0%B9%87%E0%B8%84%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89)-Numju-%E0%B8%99%E0%B8%B1%E0%B8%A1%E0%B8%88%E0%B8%B9%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-100-g.%E0%B8%97-i.78549877.8926463266?sp_atk=fb8fba99-1f88-448c-8b33-79a4a204b622&amp;xptdk=fb8fba99-1f88-448c-8b33-79a4a204b622</v>
+        <v>https://shopee.co.th/-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%B1%E0%B8%81%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%AD%E0%B8%A1%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-1-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-100--i.35528085.25605313463?sp_atk=d246c1e2-deef-45be-b444-7d7c07845d93&amp;xptdk=d246c1e2-deef-45be-b444-7d7c07845d93</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkl7hb7zoogue8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lprr4nv24ulgbd_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>-36%</v>
+        <v>-75%</v>
       </c>
       <c r="D51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
       </c>
       <c r="E51" t="str">
-        <v>🇰🇷(มีคิวอาร์โค้ดเช็คของแท้) Numju นัมจูโลชั่น หัวเชื้อวิตามินนำเข้าจากเกาหลี 100 g.ท</v>
+        <v>[ส่งฟรี]  ลิปปากฉ่ำ ลิปสักปาก  สวยอมชมพู 1 หลอด ของแท้ 100%</v>
       </c>
       <c r="F51" t="str">
-        <v>฿199</v>
+        <v>฿159</v>
       </c>
       <c r="G51" t="str">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="H51" t="str">
-        <v>ขายแล้ว 170.7พัน ชิ้น</v>
+        <v>ขายแล้ว 8พัน ชิ้น</v>
       </c>
       <c r="I51" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -2459,77 +2759,89 @@
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="M51" t="str">
         <v/>
+      </c>
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C-ROM-ND-Juicy-Lasting-Tint-5.5G-%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.295233598.24950464976?sp_atk=271dd3c9-9a80-4686-933a-5360e9dbc7ca&amp;xptdk=271dd3c9-9a80-4686-933a-5360e9dbc7ca</v>
+        <v>https://shopee.co.th/M389-LAMEILA-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%A5%E0%B8%87%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.399041507.23557103717?sp_atk=8c8eddb5-1d86-4419-a743-6e373bf839fe&amp;xptdk=8c8eddb5-1d86-4419-a743-6e373bf839fe</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lntw1gdosjzkc2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lmkemuxqo2yvcb_tn</v>
       </c>
       <c r="C52" t="str">
-        <v>-62%</v>
+        <v>-97%</v>
       </c>
       <c r="D52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
       </c>
       <c r="E52" t="str">
-        <v>ลิปทินท์ ROM&amp;ND Juicy Lasting Tint 5.5G ทาง่าย ไม่ตกร่อง  ติดทนนาน</v>
+        <v>M389 LAMEILA ไพรเมอร์เนื้อใส เบลอรูขุมขน ควบคุมความมัน ปรับผิวให้เรียบเนียน ลงก่อนแต่งหน้า</v>
       </c>
       <c r="F52" t="str">
-        <v>-</v>
+        <v>฿39</v>
       </c>
       <c r="G52" t="str">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="H52" t="str">
-        <v>ขายแล้ว 3.7พัน ชิ้น</v>
+        <v>ขายแล้ว 39พัน ชิ้น</v>
       </c>
       <c r="I52" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J52" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K52" t="str">
-        <v>189</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M52" t="str">
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <v/>
+      </c>
+      <c r="O52" t="str">
         <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/bnb-barenbliss-True-Beauty-Inside-Cushion-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-SPF45-PA-%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-24%E0%B8%8A%E0%B8%A1.-i.668922905.17656615411?sp_atk=71cb6ab4-8942-416f-a51d-8a1c7c955ed2&amp;xptdk=71cb6ab4-8942-416f-a51d-8a1c7c955ed2</v>
+        <v>https://shopee.co.th/YOU-NoutriWear-Makeup-Setting-Spray-55ml-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%95%E0%B8%95%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%B1%E0%B8%9E-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.375845828.22439742365?sp_atk=aeb11ae9-09ea-4c49-be71-05a0c2c4668d&amp;xptdk=aeb11ae9-09ea-4c49-be71-05a0c2c4668d</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lqaacci9bc4a11_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lqh4bfh71g62a7_tn</v>
       </c>
       <c r="C53" t="str">
-        <v>-14%</v>
+        <v>-34%</v>
       </c>
       <c r="D53" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E53" t="str">
-        <v>bnb barenbliss True Beauty Inside Cushion คุชชั่นเกาหลีผสมกันแดด SPF45 PA+++ คุมมัน ปกปิดขั้นสุด ติดทนนาน 24ชม.</v>
+        <v>YOU NoutriWear+ Makeup Setting Spray 55ml เซ็ตติ้งสเปรย์ สเปรย์ล็อคเมคอัพ ควบคุมความมัน ติดทนยาวนาน 12 ชั่วโมง</v>
       </c>
       <c r="F53" t="str">
-        <v>฿559</v>
+        <v>฿179</v>
       </c>
       <c r="G53" t="str">
-        <v>479</v>
+        <v>119</v>
       </c>
       <c r="H53" t="str">
-        <v>ขายแล้ว 21.1พัน ชิ้น</v>
+        <v>ขายแล้ว 39.6พัน ชิ้น</v>
       </c>
       <c r="I53" t="str">
         <v>จังหวัดสมุทรปราการ</v>
@@ -2544,36 +2856,42 @@
         <v/>
       </c>
       <c r="M53" t="str">
+        <v>โค้ดลด ฿30</v>
+      </c>
+      <c r="N53" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+      </c>
+      <c r="O53" t="str">
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/Vaseline-Healthy-Bright-SPF-50-PA-Sun-Pollution-Protection-Concentrate-Brightening-Serum-300ML-%E0%B8%A7%E0%B8%B2%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%99-%E0%B9%80%E0%B8%AE%E0%B8%A5%E0%B8%98%E0%B8%B5-%E0%B9%84%E0%B8%9A%E0%B8%A3%E0%B8%97%E0%B9%8C-%E0%B9%80%E0%B8%AD%E0%B8%AA%E0%B8%9E%E0%B8%B5%E0%B9%80%E0%B8%AD%E0%B8%9F-50-%E0%B8%9E%E0%B8%B5%E0%B9%80%E0%B8%AD-%E0%B8%8B%E0%B8%B1%E0%B8%99-%E0%B9%82%E0%B8%9E%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%82%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%84%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%94-%E0%B9%84%E0%B8%9A%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-300%E0%B8%A1%E0%B8%A5.-i.325262295.15532514697?sp_atk=5184a6aa-0340-4732-b811-4917f38b915c&amp;xptdk=5184a6aa-0340-4732-b811-4917f38b915c</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-muji-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.149823108.13961213785?sp_atk=f2fa95fa-d5bb-483d-9f9a-8ec04022d04d&amp;xptdk=f2fa95fa-d5bb-483d-9f9a-8ec04022d04d</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7r98t-lq3alnk6vxlwc4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/39fca6cb73f49e1ac7e3dce8f97d3f1a_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>-51%</v>
+        <v>-64%</v>
       </c>
       <c r="D54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E54" t="str">
-        <v>Vaseline Healthy Bright SPF 50+ PA++++ Sun+Pollution Protection Concentrate Brightening Serum 300ML วาสลีน เฮลธี ไบรท์ เอสพีเอฟ 50+ พีเอ++++ ซัน+โพลูชั่น โพรเทคชั่น คอนเซ็นเทรด ไบรเทนนิ่ง เซรั่ม 300มล.</v>
+        <v>ที่ดัดขนตา, ขนตาบนและล่าง,ที่ดัดขนตาบางส่วนแบบพกพาขนาดเล็กของญี่ปุ่นและเกาหลี ที่ดัดขนตา muji เครื่องมือแต่งหน้าต่อขนตา</v>
       </c>
       <c r="F54" t="str">
-        <v>฿279</v>
+        <v>฿25</v>
       </c>
       <c r="G54" t="str">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="H54" t="str">
-        <v>ขายแล้ว 14.3พัน ชิ้น</v>
+        <v>ขายแล้ว 94.1พัน ชิ้น</v>
       </c>
       <c r="I54" t="str">
-        <v>จังหวัดฉะเชิงเทรา</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J54" t="str">
         <v/>
@@ -2582,80 +2900,92 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="M54" t="str">
         <v/>
+      </c>
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/%F0%9F%8C%B8(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-COSMIC-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%84-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%81-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%9E%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7-100-ml.-i.78549877.6442547811?sp_atk=45c004f5-26aa-4c61-bf28-55354ffbe726&amp;xptdk=45c004f5-26aa-4c61-bf28-55354ffbe726</v>
+        <v>https://shopee.co.th/Dr.PONG-ACNE-ACE-Longwear-Cushion-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B9%89%E0%B8%A7%E0%B8%A2%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%B4%E0%B8%88%E0%B8%B1%E0%B8%A2-%E0%B8%AA%E0%B8%B4%E0%B8%A7%E0%B8%A5%E0%B8%94%E0%B8%A5%E0%B8%87%E0%B8%88%E0%B8%A3%E0%B8%B4%E0%B8%87-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%95%E0%B8%B1%E0%B8%99-%E0%B8%9C%E0%B8%AA%E0%B8%B2%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%84%E0%B9%82%E0%B8%99%E0%B9%82%E0%B8%A5%E0%B8%A2%E0%B8%B5%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-i.6583190.22256919131?sp_atk=62f4c566-ff5d-4e25-a038-35d525428bce&amp;xptdk=62f4c566-ff5d-4e25-a038-35d525428bce</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-c0sbznoujdovc6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-lq1ienmi3qas1f_tn</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>-50%</v>
       </c>
       <c r="D55" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E55" t="str">
-        <v>🌸(แพคเกจใหม่) COSMIC คอสมิค คอสมิก มูสเทพกำจัดขน กำจัดขนรักแร้ กำจัดขนน้องสาว 100 ml.</v>
+        <v>Dr.PONG ACNE ACE Longwear Cushion คุชชั่นลดสิว ยืนยันด้วยงานวิจัย สิวลดลงจริง ไม่อุดตัน ผสานเทคโนโลยีกันน้ำ กันเหงื่อ</v>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="G55" t="str">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="H55" t="str">
-        <v>ขายแล้ว 53.1พัน ชิ้น</v>
+        <v>ขายแล้ว 18.2พัน ชิ้น</v>
       </c>
       <c r="I55" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J55" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>699</v>
       </c>
       <c r="L55" t="str">
         <v/>
       </c>
       <c r="M55" t="str">
+        <v/>
+      </c>
+      <c r="N55" t="str">
+        <v>ซื้อ 2 ชิ้น ลด ฿20</v>
+      </c>
+      <c r="O55" t="str">
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-Clear-Nose-Skin-Barrier-Moisturizing-Gel-10ml-x7%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-(MOS6-1)-i.34669982.21983516452?sp_atk=a673ba99-5822-49c4-b3a0-13f0546bc857&amp;xptdk=a673ba99-5822-49c4-b3a0-13f0546bc857</v>
+        <v>https://shopee.co.th/DAZZLE-ME-Ink-Licious-Lip-Tint-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12%E0%B8%8A%E0%B8%A1.-i.762689085.18408916441?sp_atk=3bb28c1e-558b-4434-8770-6ed28035f4a2&amp;xptdk=3bb28c1e-558b-4434-8770-6ed28035f4a2</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll1msrmtl1t617_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-yprhw24dmdiv7b_tn</v>
       </c>
       <c r="C56" t="str">
-        <v>-14%</v>
+        <v>-59%</v>
       </c>
       <c r="D56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
       </c>
       <c r="E56" t="str">
-        <v>[โปรแรง]มอยส์บูสเตอร์เคลียร์โนส Clear Nose Skin Barrier Moisturizing Gel 10ml x7ชิ้น (MOS6+1)</v>
+        <v>DAZZLE ME Ink-Licious Lip Tint ลิปไม่ติดแมส ลิปทินท์เนื้อน้ำ สีแน่นชัด ติดทนนาน 12ชม.</v>
       </c>
       <c r="F56" t="str">
-        <v>฿343</v>
+        <v>฿119</v>
       </c>
       <c r="G56" t="str">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="H56" t="str">
-        <v>ขายแล้ว 9.1พัน ชิ้น</v>
+        <v>ขายแล้ว 44.9พัน ชิ้น</v>
       </c>
       <c r="I56" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J56" t="str">
         <v/>
@@ -2667,115 +2997,133 @@
         <v/>
       </c>
       <c r="M56" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/YOU-SUNBRELLA-Airy-Outdoor-Sunscreen-Spray-SPF-50-PA-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-i.375845828.20083279369?sp_atk=7b51dafd-706f-45a3-8323-39630a3e4aa3&amp;xptdk=7b51dafd-706f-45a3-8323-39630a3e4aa3</v>
+        <v>https://shopee.co.th/Muge-LEEN-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.237213347.23274828336?sp_atk=2a88c806-3c65-4dc5-9958-a7d1822cb8a3&amp;xptdk=2a88c806-3c65-4dc5-9958-a7d1822cb8a3</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-lq1fof9r39ic73_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvfw-ljm76868v3iv67_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>-25%</v>
+        <v>-79%</v>
       </c>
       <c r="D57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E57" t="str">
-        <v>YOU SUNBRELLA Airy Outdoor Sunscreen Spray SPF 50+ PA ++++ สเปรย์กันแดดสำหรับผิวหน้าและผิวกาย</v>
+        <v>Muge LEEN ไฮไลท์คอนทัวร์ เนื้อแมตต์ กันน้ํา ติดทนนาน</v>
       </c>
       <c r="F57" t="str">
-        <v>฿265</v>
+        <v>-</v>
       </c>
       <c r="G57" t="str">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="H57" t="str">
-        <v>ขายแล้ว 5.3พัน ชิ้น</v>
+        <v>ขายแล้ว 12.4พัน ชิ้น</v>
       </c>
       <c r="I57" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J57" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>23</v>
       </c>
       <c r="L57" t="str">
         <v/>
       </c>
       <c r="M57" t="str">
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="O57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%84-%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-i.121739699.23550144133?sp_atk=539a59e3-6d60-48a1-aba3-353d02dd8ff6&amp;xptdk=539a59e3-6d60-48a1-aba3-353d02dd8ff6</v>
+        <v>https://shopee.co.th/-%E0%B8%A5%E0%B8%94%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5-75-%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-JKXL9WN7S9-JKxLAB-EX-A-Body-Cream-200-g-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%A1%E0%B8%82%E0%B9%89%E0%B8%99%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9%E0%B8%94%E0%B9%89%E0%B8%A7%E0%B8%A2-10-AHA-%E0%B8%9C%E0%B8%A5%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%80%E0%B8%81%E0%B9%88%E0%B8%B2%E0%B8%94%E0%B8%B8%E0%B8%88%E0%B9%80%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-i.938304759.18390530744?sp_atk=f3556279-e585-4769-be7d-c70332f4299f&amp;xptdk=f3556279-e585-4769-be7d-c70332f4299f</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23030-kevex2mvqaov02_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-7r990-lpb5dcbyub9a8f_tn</v>
       </c>
       <c r="C58" t="str">
-        <v>-73%</v>
+        <v>-44%</v>
       </c>
       <c r="D58" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-bf33da1913ccd6405afb9f512262fc58</v>
       </c>
       <c r="E58" t="str">
-        <v>แปรงหวีผมซิลิโคน ป้องกันรังแค สีขาว สําหรับสระผม</v>
+        <v>[ลดทันที 75 กรอกโค้ด JKXL9WN7S9]JKxLAB EX-A Body Cream 200 g ครีมผิวกายเข้มข้นพิเศษด้วย 10%AHA ผลัดผิวเก่าดุจเปิดผิวใหม่</v>
       </c>
       <c r="F58" t="str">
-        <v>-</v>
+        <v>฿390</v>
       </c>
       <c r="G58" t="str">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="H58" t="str">
-        <v>ขายแล้ว 33.5พัน ชิ้น</v>
+        <v>ขายแล้ว 10.4พัน ชิ้น</v>
       </c>
       <c r="I58" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J58" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="K58" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="L58" t="str">
         <v/>
       </c>
       <c r="M58" t="str">
+        <v>โค้ดลด ฿40</v>
+      </c>
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58" t="str">
         <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/Dr.PONG-28D-WHITENING-DRONE-PINKY-LIP-MASK-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B8%94%E0%B8%B9%E0%B8%AD%E0%B8%A7%E0%B8%9A%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1-i.6583190.16095413625?sp_atk=3adad27a-1129-4022-99bc-e5546fb91250&amp;xptdk=3adad27a-1129-4022-99bc-e5546fb91250</v>
+        <v>https://shopee.co.th/4U2-Flower-Blush-3.3g-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1.-i.70998059.25006011035?sp_atk=7877aef3-b74d-4dde-b6df-138e4c6f30d5&amp;xptdk=7877aef3-b74d-4dde-b6df-138e4c6f30d5</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lq1hh809hp961a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn7-lpy55pkkjefy31_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>-66%</v>
+        <v>-40%</v>
       </c>
       <c r="D59" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E59" t="str">
-        <v>Dr.PONG 28D WHITENING DRONE PINKY LIP MASK ลิปมาส์กแก้ปากคล้ำ ปากชมพูดูอวบอิ่ม</v>
+        <v>4U2 Flower Blush 3.3g บลัชออนปัดแก้ม.</v>
       </c>
       <c r="F59" t="str">
-        <v>฿590</v>
+        <v>฿299</v>
       </c>
       <c r="G59" t="str">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H59" t="str">
-        <v>ขายแล้ว 50.5พัน ชิ้น</v>
+        <v>ขายแล้ว 2.2พัน ชิ้น</v>
       </c>
       <c r="I59" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -2790,33 +3138,39 @@
         <v/>
       </c>
       <c r="M59" t="str">
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <v/>
+      </c>
+      <c r="O59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/(%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%94%E0%B8%B3%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99)-La-Glace-Black-pH-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%94%E0%B8%B3%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%AA-i.313357518.21472660164?sp_atk=f17590a0-5818-4c1a-893f-94c89473e943&amp;xptdk=f17590a0-5818-4c1a-893f-94c89473e943</v>
+        <v>https://shopee.co.th/SASI-Sugar-Rush-Lip-Tint-Vol.2-2g-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%89%E0%B8%B3.-i.70998059.24350396072?sp_atk=05ed8c89-5af9-4902-9aef-c876676466af&amp;xptdk=05ed8c89-5af9-4902-9aef-c876676466af</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lqam64m6it4449_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk0-lo6dz8zg1smu99_tn</v>
       </c>
       <c r="C60" t="str">
-        <v/>
+        <v>-10%</v>
       </c>
       <c r="D60" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E60" t="str">
-        <v>(บลัชดำตลับใหม่เปิดง่ายขึ้น) La Glace Black pH Blush | บลัชดำลากลาส</v>
+        <v>SASI Sugar Rush Lip Tint Vol.2 2g ศศิ ลิปทินท์เนื้อน้ำ.</v>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>฿99</v>
       </c>
       <c r="G60" t="str">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="H60" t="str">
-        <v>ขายแล้ว 81.5พัน ชิ้น</v>
+        <v>ขายแล้ว 5.4พัน ชิ้น</v>
       </c>
       <c r="I60" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -2831,48 +3185,60 @@
         <v/>
       </c>
       <c r="M60" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/DAZZLE-ME-Ink-Licious-Lip-Tint-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12%E0%B8%8A%E0%B8%A1.-i.762689085.18408916441?sp_atk=3faa8610-0d56-4616-a0ad-2ad0f1600aca&amp;xptdk=3faa8610-0d56-4616-a0ad-2ad0f1600aca</v>
+        <v>https://shopee.co.th/%E2%9C%85%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-FilliMilli-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-Brush-Corrector-811-i.244324453.18476664872?sp_atk=ba28655d-3d9f-449d-b4ab-48534ca05989&amp;xptdk=ba28655d-3d9f-449d-b4ab-48534ca05989</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-yprhw24dmdiv7b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-fm0pxl5jwwov0d_tn</v>
       </c>
       <c r="C61" t="str">
-        <v>-59%</v>
+        <v>-70%</v>
       </c>
       <c r="D61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-ec35436623bbba0be21c3fd1d2723250</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d293b7a451863b5ecae801f37bbcf55b</v>
       </c>
       <c r="E61" t="str">
-        <v>DAZZLE ME Ink-Licious Lip Tint ลิปไม่ติดแมส ลิปทินท์เนื้อน้ำ สีแน่นชัด ติดทนนาน 12ชม.</v>
+        <v>✅พร้อมส่ง ของแท้ ถูกที่สุด รวมตัวดัง FilliMilli อุปกรณ์แต่งหน้า แปรงลงรองพื้น คอนซิลเลอร์ Brush Corrector 811</v>
       </c>
       <c r="F61" t="str">
-        <v>฿119</v>
+        <v>-</v>
       </c>
       <c r="G61" t="str">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H61" t="str">
-        <v>ขายแล้ว 44.7พัน ชิ้น</v>
+        <v>ขายแล้ว 15.7พัน ชิ้น</v>
       </c>
       <c r="I61" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J61" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="K61" t="str">
-        <v/>
+        <v>539</v>
       </c>
       <c r="L61" t="str">
         <v/>
       </c>
       <c r="M61" t="str">
-        <v/>
+        <v>โค้ดลด ฿5</v>
+      </c>
+      <c r="N61" t="str">
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
   </sheetData>
